--- a/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 14_it_IT.xlsx
+++ b/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 14_it_IT.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
@@ -499,10 +499,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>ms289_title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Correspondance politique (Corrispondenza politica)</t>
         </is>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -514,10 +519,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ms289_15_title</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>[Correspondance politique (Corrispondenza politica)]</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -529,10 +539,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ms289_15_i_title</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Correspondance politique (Corrispondenza politica)</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -542,7 +557,12 @@
           <t>ms289_15_i_1</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ms289_15_i_1</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Correspondance politique (Corrispondenza politica)</t>
         </is>
@@ -554,26 +574,31 @@
           <t>ms289_15_i_2</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1845</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ms289_15_i_2</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>13</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -585,26 +610,31 @@
           <t>ms289_15_i_3</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1845</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ms289_15_i_2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>13</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -616,26 +646,31 @@
           <t>ms289_15_i_4</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1845</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ms289_15_i_4</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D7" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>18</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -647,26 +682,31 @@
           <t>ms289_15_i_5</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1845</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ms289_15_i_4</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>18</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -678,26 +718,31 @@
           <t>ms289_15_i_6</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1845</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ms289_15_i_6</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>24</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -709,21 +754,26 @@
           <t>ms289_15_i_7a</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms289_15_i_7a</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro segreto tenuto dalla Santità di Nostro Signore Papa Gregorio XVI felicemente regnante nel Palazzo Apostolico Vaticano il dì 20 gennaio 1845"</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1845</v>
-      </c>
       <c r="D10" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>20</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -735,21 +785,26 @@
           <t>ms289_15_i_7b</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms289_15_i_7a</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro segreto tenuto dalla Santità di Nostro Signore Papa Gregorio XVI felicemente regnante nel Palazzo Apostolico Vaticano il dì 20 gennaio 1845"</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1845</v>
-      </c>
       <c r="D11" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -761,21 +816,26 @@
           <t>ms289_15_i_7c</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ms289_15_i_7a</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro segreto tenuto dalla Santità di Nostro Signore Papa Gregorio XVI felicemente regnante nel Palazzo Apostolico Vaticano il dì 20 gennaio 1845"</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1845</v>
-      </c>
       <c r="D12" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>20</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -787,21 +847,26 @@
           <t>ms289_15_i_7d</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ms289_15_i_7a</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro segreto tenuto dalla Santità di Nostro Signore Papa Gregorio XVI felicemente regnante nel Palazzo Apostolico Vaticano il dì 20 gennaio 1845"</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1845</v>
-      </c>
       <c r="D13" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>20</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -813,7 +878,12 @@
           <t>ms289_15_i_8</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ms289_15_i_8</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -825,7 +895,12 @@
           <t>ms289_15_i_9</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ms289_15_i_8</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -837,26 +912,31 @@
           <t>ms289_15_i_10</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1845</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ms289_15_i_10</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>28</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -868,26 +948,31 @@
           <t>ms289_15_i_11</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1845</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ms289_15_i_10</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>28</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -899,26 +984,31 @@
           <t>ms289_15_i_12</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1845</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ms289_15_i_10</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D18" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>28</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -930,7 +1020,12 @@
           <t>ms289_15_i_13</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ms289_15_i_13</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -942,18 +1037,23 @@
           <t>ms289_15_i_14a</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ms289_15_i_14a</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa "Journal des Débats" (16 gen. 1845)</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1845</v>
-      </c>
       <c r="D20" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -963,18 +1063,23 @@
           <t>ms289_15_i_14b</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ms289_15_i_14a</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa "Journal des Débats" (16 gen. 1845)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1845</v>
-      </c>
       <c r="D21" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>16</v>
       </c>
     </row>
@@ -984,7 +1089,12 @@
           <t>ms289_15_i_15</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ms289_15_i_15</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -996,7 +1106,12 @@
           <t>ms289_15_i_16</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ms289_15_i_15</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1008,26 +1123,31 @@
           <t>ms289_15_i_17</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1845</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ms289_15_i_17</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D24" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>6</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1039,26 +1159,31 @@
           <t>ms289_15_i_18</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1845</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ms289_15_i_17</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D25" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1070,26 +1195,31 @@
           <t>ms289_15_i_19</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1845</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ms289_15_i_17</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D26" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1101,12 +1231,17 @@
           <t>ms289_15_i_20</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ms289_15_i_20</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1118,20 +1253,25 @@
           <t>ms289_15_i_21</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ms289_15_i_21</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Copia di una lettera del $Tosti al $GregorioXVI. Rinuncia alla carica di Tesoriere</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>$Tosti</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -1143,26 +1283,31 @@
           <t>ms289_15_i_22</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ms289_15_i_22</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Copia della risposta al $Tosti</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1845</v>
-      </c>
       <c r="D29" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>15</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>$Tosti</t>
         </is>
@@ -1174,26 +1319,31 @@
           <t>ms289_15_i_23</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ms289_15_i_23</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Nota del $Cappello sul $Tosti</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1845</v>
-      </c>
       <c r="D30" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>15</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>$Cappello</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>$Tosti</t>
         </is>
@@ -1205,26 +1355,31 @@
           <t>ms289_15_i_24</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ms289_15_i_24</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sacconi al signor Conte</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1845</v>
-      </c>
       <c r="D31" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>29</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Firenze</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>$Sacconi</t>
         </is>
@@ -1236,26 +1391,31 @@
           <t>ms289_15_i_25</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ms289_15_i_24</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sacconi al signor Conte</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1845</v>
-      </c>
       <c r="D32" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>29</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Firenze</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>$Sacconi</t>
         </is>
@@ -1267,7 +1427,12 @@
           <t>ms289_15_i_26</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ms289_15_i_26</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1279,7 +1444,12 @@
           <t>ms289_15_i_27</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ms289_15_i_26</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1291,7 +1461,12 @@
           <t>ms289_15_i_28</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ms289_15_i_26</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1303,7 +1478,12 @@
           <t>ms289_15_i_29</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ms289_15_i_26</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1315,26 +1495,31 @@
           <t>ms289_15_i_30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1845</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ms289_15_i_30</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D37" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E37" t="n">
         <v>2</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>7</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1346,7 +1531,12 @@
           <t>ms289_15_i_31</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ms289_15_i_31</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1358,26 +1548,31 @@
           <t>ms289_15_i_32</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1845</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ms289_15_i_32</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D39" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>15</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1389,26 +1584,31 @@
           <t>ms289_15_i_33</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1845</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ms289_15_i_32</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D40" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>15</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1420,21 +1620,26 @@
           <t>ms289_15_i_34</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ms289_15_i_34</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Estratto manoscritto dal Journal des Débats</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1845</v>
-      </c>
       <c r="D41" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Monaco di Baviera</t>
         </is>
@@ -1446,21 +1651,26 @@
           <t>ms289_15_i_35</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ms289_15_i_35</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Trascrizione dell'editto del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>1844</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>12</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>13</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1472,21 +1682,26 @@
           <t>ms289_15_i_36</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ms289_15_i_35</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Trascrizione dell'editto del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1844</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>12</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>13</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1498,21 +1713,26 @@
           <t>ms289_15_i_37</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ms289_15_i_35</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Trascrizione dell'editto del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>1844</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>12</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>13</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1524,12 +1744,17 @@
           <t>ms289_15_i_38</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ms289_15_i_38</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>1844</v>
       </c>
     </row>
@@ -1539,21 +1764,26 @@
           <t>ms289_15_i_39</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ms289_15_i_39</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Ordinanza del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>1844</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>12</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>13</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1565,21 +1795,26 @@
           <t>ms289_15_i_40</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ms289_15_i_40</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Ordinanza del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>1884</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>12</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>13</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1591,21 +1826,26 @@
           <t>ms289_15_i_41</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ms289_15_i_41</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Ordinanza del $Cagiano sugli usi da avere prima di contrarre matrimonio</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1844</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>12</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>13</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>$Cagiano</t>
         </is>
@@ -1617,7 +1857,12 @@
           <t>ms289_15_i_42</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ms289_15_i_42</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1629,7 +1874,12 @@
           <t>ms289_15_i_43</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ms289_15_i_42</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1641,7 +1891,12 @@
           <t>ms289_15_i_44</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ms289_15_i_42</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1653,7 +1908,12 @@
           <t>ms289_15_i_45</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ms289_15_i_42</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1665,26 +1925,31 @@
           <t>ms289_15_i_46</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1845</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ms289_15_i_46</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D53" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E53" t="n">
         <v>2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>20</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1696,7 +1961,12 @@
           <t>ms289_15_i_47</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ms289_15_i_47</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1708,26 +1978,31 @@
           <t>ms289_15_i_48</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1845</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ms289_15_i_48</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D55" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E55" t="n">
         <v>2</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>25</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1739,26 +2014,31 @@
           <t>ms289_15_i_49</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1845</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ms289_15_i_48</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D56" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E56" t="n">
         <v>2</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>25</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1770,26 +2050,31 @@
           <t>ms289_15_i_49b</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1845</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ms289_15_i_48</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D57" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E57" t="n">
         <v>2</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>25</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1801,26 +2086,31 @@
           <t>ms289_15_i_50</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1845</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ms289_15_i_48</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D58" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E58" t="n">
         <v>2</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>25</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1832,26 +2122,31 @@
           <t>ms289_15_i_51</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1845</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ms289_15_i_48</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D59" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E59" t="n">
         <v>2</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>25</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1863,7 +2158,12 @@
           <t>ms289_15_i_52</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ms289_15_i_52</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1875,31 +2175,36 @@
           <t>ms289_15_i_53</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1845</v>
-      </c>
       <c r="D61" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>15</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1911,31 +2216,36 @@
           <t>ms289_15_i_54</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1845</v>
-      </c>
       <c r="D62" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E62" t="n">
         <v>3</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>15</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1947,31 +2257,36 @@
           <t>ms289_15_i_55</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1845</v>
-      </c>
       <c r="D63" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>15</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -1983,31 +2298,36 @@
           <t>ms289_15_i_56</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1845</v>
-      </c>
       <c r="D64" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>15</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2019,31 +2339,36 @@
           <t>ms289_15_i_57</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1845</v>
-      </c>
       <c r="D65" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>15</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2055,31 +2380,36 @@
           <t>ms289_15_i_58</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ms289_15_i_53</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Massimo al $Sarraz con allegata notificazione</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1845</v>
-      </c>
       <c r="D66" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>15</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>$Massimo</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2091,26 +2421,31 @@
           <t>ms289_15_i_59</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1845</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ms289_15_i_59</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D67" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>21</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2122,26 +2457,31 @@
           <t>ms289_15_i_60</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1845</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ms289_15_i_59</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D68" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E68" t="n">
         <v>3</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>21</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2153,26 +2493,31 @@
           <t>ms289_15_i_61</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1845</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ms289_15_i_59</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D69" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>21</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2184,26 +2529,31 @@
           <t>ms289_15_i_62</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1845</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ms289_15_i_59</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D70" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>21</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2215,26 +2565,31 @@
           <t>ms289_15_i_63</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1845</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ms289_15_i_63</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D71" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>26</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2246,26 +2601,31 @@
           <t>ms289_15_i_64</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1845</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ms289_15_i_63</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D72" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E72" t="n">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>26</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2277,26 +2637,31 @@
           <t>ms289_15_i_65</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1845</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ms289_15_i_63</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D73" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>26</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2308,26 +2673,31 @@
           <t>ms289_15_i_66</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1845</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ms289_15_i_63</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D74" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>26</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2339,26 +2709,31 @@
           <t>ms289_15_i_67</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1845</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ms289_15_i_67</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D75" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>2</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2370,26 +2745,31 @@
           <t>ms289_15_i_68</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1845</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ms289_15_i_67</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D76" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E76" t="n">
         <v>4</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>2</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2401,26 +2781,31 @@
           <t>ms289_15_i_69</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1845</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ms289_15_i_67</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D77" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E77" t="n">
         <v>4</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>2</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2432,26 +2817,31 @@
           <t>ms289_15_i_70</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1845</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ms289_15_i_67</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D78" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2463,26 +2853,31 @@
           <t>ms289_15_i_71</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1845</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms289_15_i_71</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D79" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E79" t="n">
         <v>4</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>9</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2494,26 +2889,31 @@
           <t>ms289_15_i_72</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1845</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ms289_15_i_71</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D80" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E80" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>9</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2525,26 +2925,31 @@
           <t>ms289_15_i_73</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1845</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ms289_15_i_71</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D81" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E81" t="n">
         <v>4</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>9</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2556,26 +2961,31 @@
           <t>ms289_15_i_74</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1845</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ms289_15_i_71</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D82" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E82" t="n">
         <v>4</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>9</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2587,7 +2997,12 @@
           <t>ms289_15_i_75</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ms289_15_i_75</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2599,26 +3014,31 @@
           <t>ms289_15_i_76</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1845</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ms289_15_i_76</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D84" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>12</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2630,26 +3050,31 @@
           <t>ms289_15_i_77</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1845</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ms289_15_i_76</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D85" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>12</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2661,31 +3086,36 @@
           <t>ms289_15_i_78</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ms289_15_i_78</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t>Lettera del $RossiP al $Liedkerke</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>1845</v>
-      </c>
       <c r="D86" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E86" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>11</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>$RossiP</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -2697,20 +3127,25 @@
           <t>ms289_15_i_79</t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ms289_15_i_79</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>Lettera del $Liedkerke al $RossiP</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>1845</v>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="D87" t="n">
+        <v>1845</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>$RossiP</t>
         </is>
@@ -2722,12 +3157,17 @@
           <t>ms289_15_i_80</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ms289_15_i_80</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -2737,12 +3177,17 @@
           <t>ms289_15_i_81</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ms289_15_i_80</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -2752,26 +3197,31 @@
           <t>ms289_15_i_82</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1845</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ms289_15_i_82</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D90" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E90" t="n">
         <v>4</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>19</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2783,26 +3233,31 @@
           <t>ms289_15_i_83</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1845</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ms289_15_i_82</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D91" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>19</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2814,26 +3269,31 @@
           <t>ms289_15_i_84</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1845</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ms289_15_i_82</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D92" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E92" t="n">
         <v>4</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>19</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2845,26 +3305,31 @@
           <t>ms289_15_i_85</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1845</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ms289_15_i_82</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D93" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>19</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2876,21 +3341,26 @@
           <t>ms289_15_i_86</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ms289_15_i_86</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>Decreto di papa Gregorio XVI del 5 aprile 1845 circa l'Indice dei Libri Proibiti (a stampa)</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>1845</v>
-      </c>
       <c r="D94" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>5</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -2902,21 +3372,26 @@
           <t>ms289_15_i_87</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ms289_15_i_86</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>Decreto di papa Gregorio XVI del 5 aprile 1845 circa l'Indice dei Libri Proibiti (a stampa)</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1845</v>
-      </c>
       <c r="D95" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>5</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -2928,7 +3403,12 @@
           <t>ms289_15_i_88</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ms289_15_i_88</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2940,7 +3420,12 @@
           <t>ms289_15_i_89</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ms289_15_i_88</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2952,26 +3437,31 @@
           <t>ms289_15_i_90</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>1845</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ms289_15_i_90</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D98" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E98" t="n">
         <v>4</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>26</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -2983,26 +3473,31 @@
           <t>ms289_15_i_91</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>1845</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ms289_15_i_90</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D99" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E99" t="n">
         <v>4</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>26</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3014,26 +3509,31 @@
           <t>ms289_15_i_92a</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ms289_15_i_92a</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>A stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 aprile 1845”</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1845</v>
-      </c>
       <c r="D100" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E100" t="n">
         <v>4</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>24</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -3045,26 +3545,31 @@
           <t>ms289_15_i_92b</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ms289_15_i_92a</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>A stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 aprile 1845”</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>1845</v>
-      </c>
       <c r="D101" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E101" t="n">
         <v>4</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>24</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -3076,26 +3581,31 @@
           <t>ms289_15_i_93a</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ms289_15_i_92a</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
         <is>
           <t>A stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 aprile 1845”</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1845</v>
-      </c>
       <c r="D102" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E102" t="n">
         <v>4</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>24</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -3107,26 +3617,31 @@
           <t>ms289_15_i_93b</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ms289_15_i_92a</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
         <is>
           <t>A stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 aprile 1845”</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1845</v>
-      </c>
       <c r="D103" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E103" t="n">
         <v>4</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>24</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -3138,12 +3653,17 @@
           <t>ms289_15_i_94</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ms289_15_i_94</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -3153,12 +3673,17 @@
           <t>ms289_15_i_95</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ms289_15_i_94</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -3168,26 +3693,31 @@
           <t>ms289_15_i_96</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1845</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ms289_15_i_96</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D106" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E106" t="n">
         <v>4</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>22</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3199,26 +3729,31 @@
           <t>ms289_15_i_97</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>1845</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ms289_15_i_96</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D107" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E107" t="n">
         <v>4</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>22</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3230,21 +3765,26 @@
           <t>ms289_15_i_98a</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ms289_15_i_98a</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa "Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 21 aprile 1845”</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>1945</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>4</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>21</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -3256,21 +3796,26 @@
           <t>ms289_15_i_98b</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ms289_15_i_98a</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa "Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 21 aprile 1845”</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>1945</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>4</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>21</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -3282,21 +3827,26 @@
           <t>ms289_15_i_98c</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ms289_15_i_98a</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa "Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 21 aprile 1845”</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>1945</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>4</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>21</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -3308,21 +3858,26 @@
           <t>ms289_15_i_98d</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ms289_15_i_98a</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa "Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 21 aprile 1845”</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>1945</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>4</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>21</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -3334,7 +3889,12 @@
           <t>ms289_15_i_99</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ms289_15_i_99</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3346,7 +3906,12 @@
           <t>ms289_15_i_100</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ms289_15_i_99</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3358,26 +3923,31 @@
           <t>ms289_15_i_101</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1845</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ms289_15_i_101</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D114" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E114" t="n">
         <v>4</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>28</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3389,26 +3959,31 @@
           <t>ms289_15_i_102</t>
         </is>
       </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>1845</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ms289_15_i_101</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D115" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>28</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3420,31 +3995,36 @@
           <t>ms289_15_i_103</t>
         </is>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ms289_15_i_103</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1845</v>
-      </c>
       <c r="D116" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E116" t="n">
         <v>6</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>30</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>$Sarraz</t>
-        </is>
-      </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3456,31 +4036,36 @@
           <t>ms289_15_i_104</t>
         </is>
       </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ms289_15_i_104</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
         <is>
           <t>Lettera cifrata del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1845</v>
-      </c>
       <c r="D117" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>12</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>$Sarraz</t>
-        </is>
-      </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3492,31 +4077,36 @@
           <t>ms289_15_i_105</t>
         </is>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ms289_15_i_105</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Liedkerke</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>1845</v>
-      </c>
       <c r="D118" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E118" t="n">
         <v>4</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>12</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>$Sarraz</t>
-        </is>
-      </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>$Liedkerke</t>
         </is>
@@ -3528,7 +4118,12 @@
           <t>ms289_15_i_106</t>
         </is>
       </c>
-      <c r="B119" s="4" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ms289_15_i_106</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3540,7 +4135,12 @@
           <t>ms289_15_i_107</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ms289_15_i_106</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3552,7 +4152,12 @@
           <t>ms289_15_i_108</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ms289_15_i_106</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3564,26 +4169,31 @@
           <t>ms289_15_i_109</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>1845</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ms289_15_i_109</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D122" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E122" t="n">
         <v>5</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>6</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3595,26 +4205,31 @@
           <t>ms289_15_i_110</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1845</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ms289_15_i_109</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D123" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E123" t="n">
         <v>5</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>6</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3626,26 +4241,31 @@
           <t>ms289_15_i_111</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1845</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ms289_15_i_109</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D124" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E124" t="n">
         <v>5</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>6</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3657,26 +4277,31 @@
           <t>ms289_15_i_112</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1845</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ms289_15_i_109</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D125" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>6</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3688,18 +4313,23 @@
           <t>ms289_15_i_113</t>
         </is>
       </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ms289_15_i_113</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
         <is>
           <t>Estratto manoscritto dal Journal des Débats</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>1844</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>10</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3709,18 +4339,23 @@
           <t>ms289_15_i_114a</t>
         </is>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ms289_15_i_114a</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa “L'Indépendance. Belge” (25 nov. 1844)</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>1844</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>10</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3730,18 +4365,23 @@
           <t>ms289_15_i_114b</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ms289_15_i_114a</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa “L'Indépendance. Belge” (25 nov. 1844)</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>1844</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>10</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3751,7 +4391,12 @@
           <t>ms289_15_i_115</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ms289_15_i_115</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3763,26 +4408,31 @@
           <t>ms289_15_i_116</t>
         </is>
       </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1845</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ms289_15_i_116</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D130" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E130" t="n">
         <v>5</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>15</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3794,26 +4444,31 @@
           <t>ms289_15_i_117</t>
         </is>
       </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1845</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ms289_15_i_116</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D131" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E131" t="n">
         <v>5</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>15</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3825,26 +4480,31 @@
           <t>ms289_15_i_118</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>1845</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ms289_15_i_116</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D132" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E132" t="n">
         <v>5</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>15</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3856,26 +4516,31 @@
           <t>ms289_15_i_119</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1845</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ms289_15_i_116</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D133" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E133" t="n">
         <v>5</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>15</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3887,26 +4552,31 @@
           <t>ms289_15_i_120</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>1845</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ms289_15_i_116</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D134" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>15</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3918,7 +4588,12 @@
           <t>ms289_15_i_121</t>
         </is>
       </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ms289_15_i_121</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
         <is>
           <t>Appunto su un contratto</t>
         </is>
@@ -3930,7 +4605,12 @@
           <t>ms289_15_i_122</t>
         </is>
       </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ms289_15_i_122</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3942,26 +4622,31 @@
           <t>ms289_15_i_123</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>1845</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ms289_15_i_123</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D137" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E137" t="n">
         <v>5</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>17</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -3973,26 +4658,31 @@
           <t>ms289_15_i_124</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>1845</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ms289_15_i_123</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D138" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E138" t="n">
         <v>5</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>17</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4004,31 +4694,36 @@
           <t>ms289_15_i_125</t>
         </is>
       </c>
-      <c r="B139" s="3" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ms289_15_i_125</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Chastel al $Sarraz</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1845</v>
-      </c>
       <c r="D139" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E139" t="n">
         <v>5</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>22</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G139" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>$Chastel</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4040,31 +4735,36 @@
           <t>ms289_15_i_126</t>
         </is>
       </c>
-      <c r="B140" s="3" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ms289_15_i_125</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Chastel al $Sarraz</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>1845</v>
-      </c>
       <c r="D140" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E140" t="n">
         <v>5</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>22</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G140" t="inlineStr">
         <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
           <t>$Chastel</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4076,26 +4776,31 @@
           <t>ms289_15_i_127</t>
         </is>
       </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>1845</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ms289_15_i_127</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D141" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E141" t="n">
         <v>5</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>29</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4107,26 +4812,31 @@
           <t>ms289_15_i_128</t>
         </is>
       </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>1845</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ms289_15_i_127</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D142" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E142" t="n">
         <v>5</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>29</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4138,26 +4848,31 @@
           <t>ms289_15_i_129</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>1845</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ms289_15_i_127</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D143" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E143" t="n">
         <v>5</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>29</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4169,26 +4884,31 @@
           <t>ms289_15_i_130</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>1845</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ms289_15_i_127</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D144" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E144" t="n">
         <v>5</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>29</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4200,26 +4920,31 @@
           <t>ms289_15_i_131</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>1845</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ms289_15_i_131</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D145" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E145" t="n">
         <v>6</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>14</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4231,26 +4956,31 @@
           <t>ms289_15_i_132</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>1845</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ms289_15_i_131</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D146" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E146" t="n">
         <v>6</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>14</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4262,26 +4992,31 @@
           <t>ms289_15_i_133</t>
         </is>
       </c>
-      <c r="B147" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>1845</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ms289_15_i_131</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D147" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E147" t="n">
         <v>6</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>14</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4293,7 +5028,12 @@
           <t>ms289_15_i_134</t>
         </is>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ms289_15_i_134</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4305,7 +5045,12 @@
           <t>ms289_15_i_135</t>
         </is>
       </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ms289_15_i_134</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4317,26 +5062,31 @@
           <t>ms289_15_i_136</t>
         </is>
       </c>
-      <c r="B150" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1845</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ms289_15_i_136</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D150" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E150" t="n">
         <v>6</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>23</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4348,26 +5098,31 @@
           <t>ms289_15_i_137</t>
         </is>
       </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>1845</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ms289_15_i_136</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D151" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E151" t="n">
         <v>6</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>23</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4379,26 +5134,31 @@
           <t>ms289_15_i_138</t>
         </is>
       </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>1845</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ms289_15_i_136</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D152" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E152" t="n">
         <v>6</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>23</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4410,7 +5170,12 @@
           <t>ms289_15_i_139</t>
         </is>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ms289_15_i_139</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4422,18 +5187,23 @@
           <t>ms289_15_i_140a</t>
         </is>
       </c>
-      <c r="B154" s="3" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ms289_15_i_140a</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa “Diario di Roma” (Anno 1845 - N. 56 del 15 lug. 1845)</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>1845</v>
-      </c>
       <c r="D154" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E154" t="n">
         <v>7</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4443,18 +5213,23 @@
           <t>ms289_15_i_140b</t>
         </is>
       </c>
-      <c r="B155" s="3" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ms289_15_i_140a</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa “Diario di Roma” (Anno 1845 - N. 56 del 15 lug. 1845)</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>1845</v>
-      </c>
       <c r="D155" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E155" t="n">
         <v>7</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4464,12 +5239,17 @@
           <t>ms289_15_i_141</t>
         </is>
       </c>
-      <c r="B156" s="4" t="inlineStr">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ms289_15_i_141</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -4479,26 +5259,31 @@
           <t>ms289_15_i_142</t>
         </is>
       </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>1845</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ms289_15_i_142</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D157" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E157" t="n">
         <v>7</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>4</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4510,26 +5295,31 @@
           <t>ms289_15_i_143</t>
         </is>
       </c>
-      <c r="B158" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1845</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ms289_15_i_142</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D158" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E158" t="n">
         <v>7</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>4</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4541,26 +5331,31 @@
           <t>ms289_15_i_144</t>
         </is>
       </c>
-      <c r="B159" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>1845</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ms289_15_i_142</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D159" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E159" t="n">
         <v>7</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>4</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4572,7 +5367,12 @@
           <t>ms289_15_i_145</t>
         </is>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ms289_15_i_145</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4584,26 +5384,31 @@
           <t>ms289_15_i_146</t>
         </is>
       </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>1845</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ms289_15_i_146</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D161" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E161" t="n">
         <v>7</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>14</v>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4615,26 +5420,31 @@
           <t>ms289_15_i_147</t>
         </is>
       </c>
-      <c r="B162" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>1845</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ms289_15_i_146</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D162" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>14</v>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4646,26 +5456,31 @@
           <t>ms289_15_i_148</t>
         </is>
       </c>
-      <c r="B163" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>1845</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ms289_15_i_146</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D163" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E163" t="n">
         <v>7</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>14</v>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4677,26 +5492,31 @@
           <t>ms289_15_i_149</t>
         </is>
       </c>
-      <c r="B164" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1845</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ms289_15_i_146</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D164" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E164" t="n">
         <v>7</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>14</v>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4708,26 +5528,31 @@
           <t>ms289_15_i_150</t>
         </is>
       </c>
-      <c r="B165" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>1845</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ms289_15_i_150</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D165" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E165" t="n">
         <v>7</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>18</v>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4739,26 +5564,31 @@
           <t>ms289_15_i_151</t>
         </is>
       </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>1845</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ms289_15_i_150</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D166" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E166" t="n">
         <v>7</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>18</v>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4770,26 +5600,31 @@
           <t>ms289_15_i_152</t>
         </is>
       </c>
-      <c r="B167" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1845</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ms289_15_i_152</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D167" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E167" t="n">
         <v>7</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>25</v>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4801,26 +5636,31 @@
           <t>ms289_15_i_153</t>
         </is>
       </c>
-      <c r="B168" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>1845</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ms289_15_i_152</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D168" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E168" t="n">
         <v>7</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>25</v>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4832,26 +5672,31 @@
           <t>ms289_15_i_154</t>
         </is>
       </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>1845</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ms289_15_i_152</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D169" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E169" t="n">
         <v>7</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>25</v>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4863,12 +5708,17 @@
           <t>ms289_15_i_155</t>
         </is>
       </c>
-      <c r="B170" s="3" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ms289_15_i_155</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -4878,26 +5728,31 @@
           <t>ms289_15_i_156</t>
         </is>
       </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>1845</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ms289_15_i_156</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D171" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>30</v>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4909,26 +5764,31 @@
           <t>ms289_15_i_157</t>
         </is>
       </c>
-      <c r="B172" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>1845</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ms289_15_i_156</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D172" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>30</v>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4940,26 +5800,31 @@
           <t>ms289_15_i_158</t>
         </is>
       </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>1845</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ms289_15_i_158</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D173" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E173" t="n">
         <v>8</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>11</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -4971,26 +5836,31 @@
           <t>ms289_15_i_159</t>
         </is>
       </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>1845</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ms289_15_i_158</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D174" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E174" t="n">
         <v>8</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>11</v>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5002,26 +5872,31 @@
           <t>ms289_15_i_160</t>
         </is>
       </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>1845</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ms289_15_i_160</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D175" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E175" t="n">
         <v>9</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>5</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5033,26 +5908,31 @@
           <t>ms289_15_i_161</t>
         </is>
       </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>1845</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ms289_15_i_160</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D176" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E176" t="n">
         <v>9</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>5</v>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5064,26 +5944,31 @@
           <t>ms289_15_i_162</t>
         </is>
       </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>1845</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ms289_15_i_162</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D177" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E177" t="n">
         <v>9</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>12</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5095,26 +5980,31 @@
           <t>ms289_15_i_163</t>
         </is>
       </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>1845</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ms289_15_i_162</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D178" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E178" t="n">
         <v>9</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>12</v>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5126,31 +6016,36 @@
           <t>ms289_15_i_164</t>
         </is>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ms289_15_i_164</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>1845</v>
-      </c>
       <c r="D179" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E179" t="n">
         <v>9</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>25</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>$Sarraz</t>
-        </is>
-      </c>
       <c r="H179" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5162,7 +6057,12 @@
           <t>ms289_15_i_165</t>
         </is>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ms289_15_i_165</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5174,7 +6074,12 @@
           <t>ms289_15_i_166</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ms289_15_i_165</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5186,31 +6091,36 @@
           <t>ms289_15_i_167</t>
         </is>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ms289_15_i_167</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>1845</v>
-      </c>
       <c r="D182" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E182" t="n">
         <v>10</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>20</v>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>$Sarraz</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -5222,7 +6132,12 @@
           <t>ms289_15_i_168</t>
         </is>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ms289_15_i_168</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5234,21 +6149,26 @@
           <t>ms289_15_i_169</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ms289_15_i_169</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>Discorso dal Trono di $OranjeWII (a stampa)</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>1845</v>
-      </c>
       <c r="D184" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>20</v>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
@@ -5260,21 +6180,26 @@
           <t>ms289_15_i_170</t>
         </is>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ms289_15_i_169</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>Discorso dal Trono di $OranjeWII (a stampa)</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>1845</v>
-      </c>
       <c r="D185" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E185" t="n">
         <v>10</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>20</v>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>$OranjeWII</t>
         </is>
@@ -5286,7 +6211,12 @@
           <t>ms289_15_i_171</t>
         </is>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ms289_15_i_171</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5298,26 +6228,31 @@
           <t>ms289_15_i_172</t>
         </is>
       </c>
-      <c r="B187" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>1845</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ms289_15_i_172</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D187" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>29</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5329,26 +6264,31 @@
           <t>ms289_15_i_173</t>
         </is>
       </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>1845</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ms289_15_i_172</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D188" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E188" t="n">
         <v>10</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>29</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5360,26 +6300,31 @@
           <t>ms289_15_i_174</t>
         </is>
       </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>1845</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ms289_15_i_174</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D189" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E189" t="n">
         <v>11</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>16</v>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5391,26 +6336,31 @@
           <t>ms289_15_i_175</t>
         </is>
       </c>
-      <c r="B190" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>1845</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ms289_15_i_174</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D190" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E190" t="n">
         <v>11</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>16</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5422,26 +6372,31 @@
           <t>ms289_15_i_176</t>
         </is>
       </c>
-      <c r="B191" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>1845</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ms289_15_i_174</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D191" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E191" t="n">
         <v>11</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>16</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5453,7 +6408,12 @@
           <t>ms289_15_i_177</t>
         </is>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ms289_15_i_177</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5465,26 +6425,31 @@
           <t>ms289_15_i_178</t>
         </is>
       </c>
-      <c r="B193" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>1845</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ms289_15_i_178</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D193" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E193" t="n">
         <v>11</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>19</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5496,26 +6461,31 @@
           <t>ms289_15_i_179</t>
         </is>
       </c>
-      <c r="B194" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>1845</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ms289_15_i_178</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D194" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E194" t="n">
         <v>11</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>19</v>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5527,26 +6497,31 @@
           <t>ms289_15_i_180</t>
         </is>
       </c>
-      <c r="B195" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>1845</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ms289_15_i_180</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D195" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E195" t="n">
         <v>11</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>26</v>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5558,26 +6533,31 @@
           <t>ms289_15_i_181</t>
         </is>
       </c>
-      <c r="B196" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>1845</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ms289_15_i_180</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D196" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E196" t="n">
         <v>11</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>26</v>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5589,26 +6569,31 @@
           <t>ms289_15_i_182</t>
         </is>
       </c>
-      <c r="B197" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>1845</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ms289_15_i_180</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D197" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E197" t="n">
         <v>11</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>26</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5620,26 +6605,31 @@
           <t>ms289_15_i_183a</t>
         </is>
       </c>
-      <c r="B198" s="3" t="inlineStr">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ms289_15_i_183a</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 novembre 1845”</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>1845</v>
-      </c>
       <c r="D198" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E198" t="n">
         <v>11</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>24</v>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -5651,26 +6641,31 @@
           <t>ms289_15_i_183b</t>
         </is>
       </c>
-      <c r="B199" s="3" t="inlineStr">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ms289_15_i_183a</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Atti del Concistoro pubblico e segreto, tenuto dalla Santità di Nostro Signore papa Gregorio XVI, felicemente regnante nel Palazzo Apostolico Vaticano il dì 24 novembre 1845”</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1845</v>
-      </c>
       <c r="D199" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E199" t="n">
         <v>11</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>24</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>$GregorioXVI</t>
         </is>
@@ -5682,21 +6677,26 @@
           <t>ms289_15_i_184a</t>
         </is>
       </c>
-      <c r="B200" s="3" t="inlineStr">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ms289_15_i_184a</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Sanctissimi Domini Nostri Gregorii Divina Providentia Papa XVI. Allocutio habita in Concistorio Secreto die 24 novembris Anni MDCCCXLV"</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>1845</v>
-      </c>
       <c r="D200" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E200" t="n">
         <v>11</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>24</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -5708,21 +6708,26 @@
           <t>ms289_15_i_184b</t>
         </is>
       </c>
-      <c r="B201" s="3" t="inlineStr">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ms289_15_i_184a</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Sanctissimi Domini Nostri Gregorii Divina Providentia Papa XVI. Allocutio habita in Concistorio Secreto die 24 novembris Anni MDCCCXLV"</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>1845</v>
-      </c>
       <c r="D201" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E201" t="n">
         <v>11</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>24</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -5734,21 +6739,26 @@
           <t>ms289_15_i_184c</t>
         </is>
       </c>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ms289_15_i_184a</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Sanctissimi Domini Nostri Gregorii Divina Providentia Papa XVI. Allocutio habita in Concistorio Secreto die 24 novembris Anni MDCCCXLV"</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1845</v>
-      </c>
       <c r="D202" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E202" t="n">
         <v>11</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>24</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -5760,21 +6770,26 @@
           <t>ms289_15_i_184d</t>
         </is>
       </c>
-      <c r="B203" s="3" t="inlineStr">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ms289_15_i_184a</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
         <is>
           <t>Foglio a stampa “Sanctissimi Domini Nostri Gregorii Divina Providentia Papa XVI. Allocutio habita in Concistorio Secreto die 24 novembris Anni MDCCCXLV"</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>1845</v>
-      </c>
       <c r="D203" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E203" t="n">
         <v>11</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>24</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
@@ -5786,7 +6801,12 @@
           <t>ms289_15_i_185</t>
         </is>
       </c>
-      <c r="B204" s="4" t="inlineStr">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ms289_15_i_185</t>
+        </is>
+      </c>
+      <c r="C204" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5798,26 +6818,31 @@
           <t>ms289_15_i_186</t>
         </is>
       </c>
-      <c r="B205" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>1845</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ms289_15_i_186</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D205" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E205" t="n">
         <v>12</v>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>3</v>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5829,7 +6854,12 @@
           <t>ms289_15_i_187</t>
         </is>
       </c>
-      <c r="B206" s="4" t="inlineStr">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ms289_15_i_187</t>
+        </is>
+      </c>
+      <c r="C206" s="4" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5841,7 +6871,12 @@
           <t>ms289_15_i_188</t>
         </is>
       </c>
-      <c r="B207" s="3" t="inlineStr">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ms289_15_i_187</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5853,26 +6888,31 @@
           <t>ms289_15_i_189</t>
         </is>
       </c>
-      <c r="B208" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>1845</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ms289_15_i_189</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D208" t="n">
-        <v>12</v>
+        <v>1845</v>
       </c>
       <c r="E208" t="n">
         <v>12</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="F208" t="n">
+        <v>12</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5884,26 +6924,31 @@
           <t>ms289_15_i_190</t>
         </is>
       </c>
-      <c r="B209" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>1845</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ms289_15_i_189</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D209" t="n">
-        <v>12</v>
+        <v>1845</v>
       </c>
       <c r="E209" t="n">
         <v>12</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="F209" t="n">
+        <v>12</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -5915,20 +6960,25 @@
           <t>ms289_15_i_191a</t>
         </is>
       </c>
-      <c r="B210" s="3" t="inlineStr">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ms289_15_i_191a</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa "Journal des Débats" (10 ott. 1845)</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>1845</v>
-      </c>
       <c r="D210" t="n">
-        <v>10</v>
+        <v>1845</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
       </c>
+      <c r="F210" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="211" ht="16" customHeight="1">
       <c r="A211" t="inlineStr">
@@ -5936,20 +6986,25 @@
           <t>ms289_15_i_191b</t>
         </is>
       </c>
-      <c r="B211" s="3" t="inlineStr">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ms289_15_i_191a</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
         <is>
           <t>Giornale a stampa "Journal des Débats" (10 ott. 1845)</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>1845</v>
-      </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>1845</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
       </c>
+      <c r="F211" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="212" ht="16" customHeight="1">
       <c r="A212" t="inlineStr">
@@ -5957,7 +7012,12 @@
           <t>ms289_15_i_192</t>
         </is>
       </c>
-      <c r="B212" s="3" t="inlineStr">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ms289_15_i_192</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
         <is>
           <t>Note manoscritte</t>
         </is>
@@ -5969,7 +7029,12 @@
           <t>ms289_15_i_193</t>
         </is>
       </c>
-      <c r="B213" s="4" t="inlineStr">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ms289_15_i_193</t>
+        </is>
+      </c>
+      <c r="C213" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
@@ -5981,12 +7046,17 @@
           <t>ms289_15_i_194</t>
         </is>
       </c>
-      <c r="B214" s="4" t="inlineStr">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C214" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -5996,12 +7066,17 @@
           <t>ms289_15_i_195</t>
         </is>
       </c>
-      <c r="B215" s="4" t="inlineStr">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C215" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6011,12 +7086,17 @@
           <t>ms289_15_i_196</t>
         </is>
       </c>
-      <c r="B216" s="4" t="inlineStr">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C216" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6026,12 +7106,17 @@
           <t>ms289_15_i_197</t>
         </is>
       </c>
-      <c r="B217" s="4" t="inlineStr">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C217" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6041,12 +7126,17 @@
           <t>ms289_15_i_198</t>
         </is>
       </c>
-      <c r="B218" s="4" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C218" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6056,12 +7146,17 @@
           <t>ms289_15_i_199</t>
         </is>
       </c>
-      <c r="B219" s="4" t="inlineStr">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C219" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6071,12 +7166,17 @@
           <t>ms289_15_i_200</t>
         </is>
       </c>
-      <c r="B220" s="4" t="inlineStr">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ms289_15_i_194</t>
+        </is>
+      </c>
+      <c r="C220" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>1845</v>
       </c>
     </row>
@@ -6086,7 +7186,12 @@
           <t>ms289_15_i_201</t>
         </is>
       </c>
-      <c r="B221" s="4" t="inlineStr">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ms289_15_i_201</t>
+        </is>
+      </c>
+      <c r="C221" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
@@ -6098,7 +7203,12 @@
           <t>ms289_15_i_202</t>
         </is>
       </c>
-      <c r="B222" s="4" t="inlineStr">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ms289_15_i_201</t>
+        </is>
+      </c>
+      <c r="C222" s="4" t="inlineStr">
         <is>
           <t>Stati Pontifici, relazione manoscritta</t>
         </is>
@@ -6110,7 +7220,12 @@
           <t>ms289_15_i_203</t>
         </is>
       </c>
-      <c r="B223" s="3" t="inlineStr">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ms289_15_i_203</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -6122,26 +7237,31 @@
           <t>ms289_15_i_204</t>
         </is>
       </c>
-      <c r="B224" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>1845</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ms289_15_i_204</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D224" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E224" t="n">
         <v>12</v>
       </c>
-      <c r="E224" t="n">
+      <c r="F224" t="n">
         <v>13</v>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6153,26 +7273,31 @@
           <t>ms289_15_i_205</t>
         </is>
       </c>
-      <c r="B225" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>1845</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ms289_15_i_204</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D225" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E225" t="n">
         <v>12</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>13</v>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6184,26 +7309,31 @@
           <t>ms289_15_i_206</t>
         </is>
       </c>
-      <c r="B226" s="3" t="inlineStr">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ms289_15_i_206</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
         <is>
           <t>Lettera a $ArataL e a $CasarettoJ</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>1845</v>
-      </c>
       <c r="D226" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E226" t="n">
         <v>12</v>
       </c>
-      <c r="E226" t="n">
+      <c r="F226" t="n">
         <v>17</v>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>$CasarettoJ; $ArataL</t>
         </is>
@@ -6215,7 +7345,12 @@
           <t>ms289_15_i_207</t>
         </is>
       </c>
-      <c r="B227" s="3" t="inlineStr">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ms289_15_i_207</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -6227,26 +7362,31 @@
           <t>ms289_15_i_208</t>
         </is>
       </c>
-      <c r="B228" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>1845</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ms289_15_i_208</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D228" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E228" t="n">
         <v>12</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>19</v>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6258,26 +7398,31 @@
           <t>ms289_15_i_209</t>
         </is>
       </c>
-      <c r="B229" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>1845</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ms289_15_i_208</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D229" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E229" t="n">
         <v>12</v>
       </c>
-      <c r="E229" t="n">
+      <c r="F229" t="n">
         <v>19</v>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6289,26 +7434,31 @@
           <t>ms289_15_i_210</t>
         </is>
       </c>
-      <c r="B230" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>1845</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ms289_15_i_210</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D230" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E230" t="n">
         <v>12</v>
       </c>
-      <c r="E230" t="n">
+      <c r="F230" t="n">
         <v>16</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6320,26 +7470,31 @@
           <t>ms289_15_i_211</t>
         </is>
       </c>
-      <c r="B231" s="3" t="inlineStr">
-        <is>
-          <t>Lettera al $Sarraz</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>1845</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ms289_15_i_210</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Lettera al $Sarraz</t>
+        </is>
       </c>
       <c r="D231" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E231" t="n">
         <v>12</v>
       </c>
-      <c r="E231" t="n">
+      <c r="F231" t="n">
         <v>16</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
         <is>
           <t>$Sarraz</t>
         </is>
@@ -6351,31 +7506,36 @@
           <t>ms289_15_i_212</t>
         </is>
       </c>
-      <c r="B232" s="3" t="inlineStr">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ms289_15_i_212</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
         <is>
           <t>Lettera del $Sarraz al $Chastel</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>1845</v>
-      </c>
       <c r="D232" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E232" t="n">
         <v>12</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>19</v>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>$Sarraz</t>
-        </is>
-      </c>
       <c r="H232" t="inlineStr">
+        <is>
+          <t>$Sarraz</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
         <is>
           <t>$Chastel</t>
         </is>
@@ -6387,7 +7547,12 @@
           <t>ms289_15_i_213</t>
         </is>
       </c>
-      <c r="B233" s="3" t="inlineStr">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ms289_15_i_213</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -6399,1184 +7564,1189 @@
           <t>ms289_15_i_214</t>
         </is>
       </c>
-      <c r="B234" s="3" t="inlineStr">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ms289_15_i_213</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
     </row>
     <row r="235" ht="16" customHeight="1">
-      <c r="B235" s="3" t="n"/>
+      <c r="C235" s="3" t="n"/>
     </row>
     <row r="236" ht="16" customHeight="1">
-      <c r="B236" s="4" t="n"/>
+      <c r="C236" s="4" t="n"/>
     </row>
     <row r="237" ht="16" customHeight="1">
-      <c r="B237" s="4" t="n"/>
+      <c r="C237" s="4" t="n"/>
     </row>
     <row r="238" ht="16" customHeight="1">
-      <c r="B238" s="3" t="n"/>
+      <c r="C238" s="3" t="n"/>
     </row>
     <row r="239" ht="16" customHeight="1">
-      <c r="B239" s="3" t="n"/>
+      <c r="C239" s="3" t="n"/>
     </row>
     <row r="240" ht="16" customHeight="1">
-      <c r="B240" s="3" t="n"/>
+      <c r="C240" s="3" t="n"/>
     </row>
     <row r="241" ht="16" customHeight="1">
-      <c r="B241" s="3" t="n"/>
+      <c r="C241" s="3" t="n"/>
     </row>
     <row r="242" ht="16" customHeight="1">
-      <c r="B242" s="3" t="n"/>
+      <c r="C242" s="3" t="n"/>
     </row>
     <row r="243" ht="16" customHeight="1">
-      <c r="B243" s="4" t="n"/>
+      <c r="C243" s="4" t="n"/>
     </row>
     <row r="244" ht="16" customHeight="1">
-      <c r="B244" s="3" t="n"/>
+      <c r="C244" s="3" t="n"/>
     </row>
     <row r="245" ht="16" customHeight="1">
-      <c r="B245" s="3" t="n"/>
+      <c r="C245" s="3" t="n"/>
     </row>
     <row r="246" ht="16" customHeight="1">
-      <c r="B246" s="3" t="n"/>
+      <c r="C246" s="3" t="n"/>
     </row>
     <row r="247" ht="16" customHeight="1">
-      <c r="B247" s="4" t="n"/>
+      <c r="C247" s="4" t="n"/>
     </row>
     <row r="248" ht="16" customHeight="1">
-      <c r="B248" s="3" t="n"/>
+      <c r="C248" s="3" t="n"/>
     </row>
     <row r="249" ht="16" customHeight="1">
-      <c r="B249" s="3" t="n"/>
+      <c r="C249" s="3" t="n"/>
     </row>
     <row r="250" ht="16" customHeight="1">
-      <c r="B250" s="3" t="n"/>
+      <c r="C250" s="3" t="n"/>
     </row>
     <row r="251" ht="16" customHeight="1">
-      <c r="B251" s="3" t="n"/>
+      <c r="C251" s="3" t="n"/>
     </row>
     <row r="252" ht="16" customHeight="1">
-      <c r="B252" s="3" t="n"/>
+      <c r="C252" s="3" t="n"/>
     </row>
     <row r="253" ht="16" customHeight="1">
-      <c r="B253" s="3" t="n"/>
+      <c r="C253" s="3" t="n"/>
     </row>
     <row r="254" ht="16" customHeight="1">
-      <c r="B254" s="3" t="n"/>
+      <c r="C254" s="3" t="n"/>
     </row>
     <row r="255" ht="16" customHeight="1">
-      <c r="B255" s="3" t="n"/>
+      <c r="C255" s="3" t="n"/>
     </row>
     <row r="256" ht="16" customHeight="1">
-      <c r="B256" s="3" t="n"/>
+      <c r="C256" s="3" t="n"/>
     </row>
     <row r="257" ht="16" customHeight="1">
-      <c r="B257" s="3" t="n"/>
+      <c r="C257" s="3" t="n"/>
     </row>
     <row r="258" ht="16" customHeight="1">
-      <c r="B258" s="3" t="n"/>
+      <c r="C258" s="3" t="n"/>
     </row>
     <row r="259" ht="16" customHeight="1">
-      <c r="B259" s="3" t="n"/>
+      <c r="C259" s="3" t="n"/>
     </row>
     <row r="260" ht="16" customHeight="1">
-      <c r="B260" s="3" t="n"/>
+      <c r="C260" s="3" t="n"/>
     </row>
     <row r="261" ht="16" customHeight="1">
-      <c r="B261" s="3" t="n"/>
+      <c r="C261" s="3" t="n"/>
     </row>
     <row r="262" ht="16" customFormat="1" customHeight="1" s="1">
-      <c r="B262" s="2" t="n"/>
+      <c r="C262" s="2" t="n"/>
     </row>
     <row r="263" ht="16" customFormat="1" customHeight="1" s="1">
-      <c r="B263" s="3" t="n"/>
+      <c r="C263" s="3" t="n"/>
     </row>
     <row r="264" ht="16" customHeight="1">
-      <c r="B264" s="3" t="n"/>
+      <c r="C264" s="3" t="n"/>
     </row>
     <row r="265" ht="16" customHeight="1">
-      <c r="B265" s="3" t="n"/>
+      <c r="C265" s="3" t="n"/>
     </row>
     <row r="266" ht="16" customHeight="1">
-      <c r="B266" s="3" t="n"/>
+      <c r="C266" s="3" t="n"/>
     </row>
     <row r="267" ht="16" customHeight="1">
-      <c r="B267" s="3" t="n"/>
+      <c r="C267" s="3" t="n"/>
     </row>
     <row r="268" ht="16" customHeight="1">
-      <c r="B268" s="3" t="n"/>
+      <c r="C268" s="3" t="n"/>
     </row>
     <row r="269" ht="16" customHeight="1">
-      <c r="B269" s="3" t="n"/>
+      <c r="C269" s="3" t="n"/>
     </row>
     <row r="270" ht="16" customHeight="1">
-      <c r="B270" s="3" t="n"/>
+      <c r="C270" s="3" t="n"/>
     </row>
     <row r="271" ht="16" customHeight="1">
-      <c r="B271" s="3" t="n"/>
+      <c r="C271" s="3" t="n"/>
     </row>
     <row r="272" ht="16" customHeight="1">
-      <c r="B272" s="3" t="n"/>
+      <c r="C272" s="3" t="n"/>
     </row>
     <row r="273" ht="16" customHeight="1">
-      <c r="B273" s="3" t="n"/>
+      <c r="C273" s="3" t="n"/>
     </row>
     <row r="274" ht="16" customHeight="1">
-      <c r="B274" s="3" t="n"/>
+      <c r="C274" s="3" t="n"/>
     </row>
     <row r="275" ht="16" customHeight="1">
-      <c r="B275" s="3" t="n"/>
+      <c r="C275" s="3" t="n"/>
     </row>
     <row r="276" ht="16" customHeight="1">
-      <c r="B276" s="3" t="n"/>
+      <c r="C276" s="3" t="n"/>
     </row>
     <row r="277" ht="16" customHeight="1">
-      <c r="B277" s="3" t="n"/>
+      <c r="C277" s="3" t="n"/>
     </row>
     <row r="278" ht="16" customHeight="1">
-      <c r="B278" s="3" t="n"/>
+      <c r="C278" s="3" t="n"/>
     </row>
     <row r="279" ht="16" customHeight="1">
-      <c r="B279" s="3" t="n"/>
+      <c r="C279" s="3" t="n"/>
     </row>
     <row r="280" ht="16" customHeight="1">
-      <c r="B280" s="3" t="n"/>
+      <c r="C280" s="3" t="n"/>
     </row>
     <row r="281" ht="16" customHeight="1">
-      <c r="B281" s="3" t="n"/>
+      <c r="C281" s="3" t="n"/>
     </row>
     <row r="282" ht="16" customHeight="1">
-      <c r="B282" s="3" t="n"/>
+      <c r="C282" s="3" t="n"/>
     </row>
     <row r="283" ht="16" customHeight="1">
-      <c r="B283" s="3" t="n"/>
+      <c r="C283" s="3" t="n"/>
     </row>
     <row r="284" ht="16" customHeight="1">
-      <c r="B284" s="3" t="n"/>
+      <c r="C284" s="3" t="n"/>
     </row>
     <row r="285" ht="16" customHeight="1">
-      <c r="B285" s="3" t="n"/>
+      <c r="C285" s="3" t="n"/>
     </row>
     <row r="286" ht="16" customHeight="1">
-      <c r="B286" s="3" t="n"/>
+      <c r="C286" s="3" t="n"/>
     </row>
     <row r="287" ht="16" customHeight="1">
-      <c r="B287" s="3" t="n"/>
+      <c r="C287" s="3" t="n"/>
     </row>
     <row r="288" ht="16" customHeight="1">
-      <c r="B288" s="3" t="n"/>
+      <c r="C288" s="3" t="n"/>
     </row>
     <row r="289" ht="16" customHeight="1">
-      <c r="B289" s="3" t="n"/>
+      <c r="C289" s="3" t="n"/>
     </row>
     <row r="290" ht="16" customHeight="1">
-      <c r="B290" s="3" t="n"/>
+      <c r="C290" s="3" t="n"/>
     </row>
     <row r="291" ht="16" customHeight="1">
-      <c r="B291" s="3" t="n"/>
+      <c r="C291" s="3" t="n"/>
     </row>
     <row r="292" ht="16" customHeight="1">
-      <c r="B292" s="3" t="n"/>
+      <c r="C292" s="3" t="n"/>
     </row>
     <row r="293" ht="16" customHeight="1">
-      <c r="B293" s="3" t="n"/>
+      <c r="C293" s="3" t="n"/>
     </row>
     <row r="294" ht="16" customHeight="1">
-      <c r="B294" s="3" t="n"/>
+      <c r="C294" s="3" t="n"/>
     </row>
     <row r="295" ht="16" customHeight="1">
-      <c r="B295" s="3" t="n"/>
+      <c r="C295" s="3" t="n"/>
     </row>
     <row r="296" ht="16" customHeight="1">
-      <c r="B296" s="3" t="n"/>
+      <c r="C296" s="3" t="n"/>
     </row>
     <row r="297" ht="16" customHeight="1">
-      <c r="B297" s="3" t="n"/>
+      <c r="C297" s="3" t="n"/>
     </row>
     <row r="298" ht="16" customHeight="1">
-      <c r="B298" s="3" t="n"/>
+      <c r="C298" s="3" t="n"/>
     </row>
     <row r="299" ht="16" customHeight="1">
-      <c r="B299" s="3" t="n"/>
+      <c r="C299" s="3" t="n"/>
     </row>
     <row r="300" ht="16" customHeight="1">
-      <c r="B300" s="3" t="n"/>
+      <c r="C300" s="3" t="n"/>
     </row>
     <row r="301" ht="16" customHeight="1">
-      <c r="B301" s="3" t="n"/>
+      <c r="C301" s="3" t="n"/>
     </row>
     <row r="302" ht="16" customHeight="1">
-      <c r="B302" s="3" t="n"/>
+      <c r="C302" s="3" t="n"/>
     </row>
     <row r="303" ht="16" customHeight="1">
-      <c r="B303" s="3" t="n"/>
+      <c r="C303" s="3" t="n"/>
     </row>
     <row r="304" ht="16" customHeight="1">
-      <c r="B304" s="3" t="n"/>
+      <c r="C304" s="3" t="n"/>
     </row>
     <row r="305" ht="16" customHeight="1">
-      <c r="B305" s="3" t="n"/>
+      <c r="C305" s="3" t="n"/>
     </row>
     <row r="306" ht="16" customHeight="1">
-      <c r="B306" s="3" t="n"/>
+      <c r="C306" s="3" t="n"/>
     </row>
     <row r="307" ht="16" customHeight="1">
-      <c r="B307" s="3" t="n"/>
+      <c r="C307" s="3" t="n"/>
     </row>
     <row r="308" ht="16" customHeight="1">
-      <c r="B308" s="3" t="n"/>
+      <c r="C308" s="3" t="n"/>
     </row>
     <row r="309" ht="16" customHeight="1">
-      <c r="B309" s="3" t="n"/>
+      <c r="C309" s="3" t="n"/>
     </row>
     <row r="310" ht="16" customHeight="1">
-      <c r="B310" s="3" t="n"/>
+      <c r="C310" s="3" t="n"/>
     </row>
     <row r="311" ht="16" customHeight="1">
-      <c r="B311" s="3" t="n"/>
+      <c r="C311" s="3" t="n"/>
     </row>
     <row r="312" ht="16" customHeight="1">
-      <c r="B312" s="3" t="n"/>
+      <c r="C312" s="3" t="n"/>
     </row>
     <row r="313" ht="16" customHeight="1">
-      <c r="B313" s="3" t="n"/>
+      <c r="C313" s="3" t="n"/>
     </row>
     <row r="314" ht="16" customHeight="1">
-      <c r="B314" s="3" t="n"/>
+      <c r="C314" s="3" t="n"/>
     </row>
     <row r="315" ht="16" customHeight="1">
-      <c r="B315" s="3" t="n"/>
+      <c r="C315" s="3" t="n"/>
     </row>
     <row r="316" ht="16" customHeight="1">
-      <c r="B316" s="3" t="n"/>
+      <c r="C316" s="3" t="n"/>
     </row>
     <row r="317" ht="16" customHeight="1">
-      <c r="B317" s="3" t="n"/>
+      <c r="C317" s="3" t="n"/>
     </row>
     <row r="318" ht="16" customHeight="1">
-      <c r="B318" s="3" t="n"/>
+      <c r="C318" s="3" t="n"/>
     </row>
     <row r="319" ht="16" customHeight="1">
-      <c r="B319" s="3" t="n"/>
+      <c r="C319" s="3" t="n"/>
     </row>
     <row r="320" ht="16" customHeight="1">
-      <c r="B320" s="3" t="n"/>
+      <c r="C320" s="3" t="n"/>
     </row>
     <row r="321" ht="16" customHeight="1">
-      <c r="B321" s="3" t="n"/>
+      <c r="C321" s="3" t="n"/>
     </row>
     <row r="322" ht="16" customHeight="1">
-      <c r="B322" s="3" t="n"/>
+      <c r="C322" s="3" t="n"/>
     </row>
     <row r="323" ht="16" customHeight="1">
-      <c r="B323" s="3" t="n"/>
+      <c r="C323" s="3" t="n"/>
     </row>
     <row r="324" ht="16" customHeight="1">
-      <c r="B324" s="3" t="n"/>
+      <c r="C324" s="3" t="n"/>
     </row>
     <row r="325" ht="16" customHeight="1">
-      <c r="B325" s="3" t="n"/>
+      <c r="C325" s="3" t="n"/>
     </row>
     <row r="326" ht="16" customHeight="1">
-      <c r="B326" s="3" t="n"/>
+      <c r="C326" s="3" t="n"/>
     </row>
     <row r="327" ht="16" customHeight="1">
-      <c r="B327" s="3" t="n"/>
+      <c r="C327" s="3" t="n"/>
     </row>
     <row r="328" ht="16" customHeight="1">
-      <c r="B328" s="3" t="n"/>
+      <c r="C328" s="3" t="n"/>
     </row>
     <row r="329" ht="16" customHeight="1">
-      <c r="B329" s="3" t="n"/>
+      <c r="C329" s="3" t="n"/>
     </row>
     <row r="330" ht="16" customHeight="1">
-      <c r="B330" s="3" t="n"/>
+      <c r="C330" s="3" t="n"/>
     </row>
     <row r="331" ht="16" customHeight="1">
-      <c r="B331" s="3" t="n"/>
+      <c r="C331" s="3" t="n"/>
     </row>
     <row r="332" ht="16" customHeight="1">
-      <c r="B332" s="3" t="n"/>
+      <c r="C332" s="3" t="n"/>
     </row>
     <row r="333" ht="16" customHeight="1">
-      <c r="B333" s="3" t="n"/>
+      <c r="C333" s="3" t="n"/>
     </row>
     <row r="334" ht="16" customHeight="1">
-      <c r="B334" s="3" t="n"/>
+      <c r="C334" s="3" t="n"/>
     </row>
     <row r="335" ht="16" customHeight="1">
-      <c r="B335" s="3" t="n"/>
+      <c r="C335" s="3" t="n"/>
     </row>
     <row r="336" ht="16" customHeight="1">
-      <c r="B336" s="3" t="n"/>
+      <c r="C336" s="3" t="n"/>
     </row>
     <row r="337" ht="16" customHeight="1">
-      <c r="B337" s="3" t="n"/>
+      <c r="C337" s="3" t="n"/>
     </row>
     <row r="338" ht="16" customHeight="1">
-      <c r="B338" s="3" t="n"/>
+      <c r="C338" s="3" t="n"/>
     </row>
     <row r="339" ht="16" customHeight="1">
-      <c r="B339" s="3" t="n"/>
+      <c r="C339" s="3" t="n"/>
     </row>
     <row r="340" ht="16" customHeight="1">
-      <c r="B340" s="3" t="n"/>
+      <c r="C340" s="3" t="n"/>
     </row>
     <row r="341" ht="16" customHeight="1">
-      <c r="B341" s="3" t="n"/>
+      <c r="C341" s="3" t="n"/>
     </row>
     <row r="342" ht="16" customHeight="1">
-      <c r="B342" s="3" t="n"/>
+      <c r="C342" s="3" t="n"/>
     </row>
     <row r="343" ht="16" customHeight="1">
-      <c r="B343" s="3" t="n"/>
+      <c r="C343" s="3" t="n"/>
     </row>
     <row r="344" ht="16" customHeight="1">
-      <c r="B344" s="3" t="n"/>
+      <c r="C344" s="3" t="n"/>
     </row>
     <row r="345" ht="16" customHeight="1">
-      <c r="B345" s="3" t="n"/>
+      <c r="C345" s="3" t="n"/>
     </row>
     <row r="346" ht="16" customHeight="1">
-      <c r="B346" s="3" t="n"/>
+      <c r="C346" s="3" t="n"/>
     </row>
     <row r="347" ht="16" customHeight="1">
-      <c r="B347" s="3" t="n"/>
+      <c r="C347" s="3" t="n"/>
     </row>
     <row r="348" ht="16" customHeight="1">
-      <c r="B348" s="3" t="n"/>
+      <c r="C348" s="3" t="n"/>
     </row>
     <row r="349" ht="16" customHeight="1">
-      <c r="B349" s="3" t="n"/>
+      <c r="C349" s="3" t="n"/>
     </row>
     <row r="350" ht="16" customHeight="1">
-      <c r="B350" s="3" t="n"/>
+      <c r="C350" s="3" t="n"/>
     </row>
     <row r="351" ht="16" customHeight="1">
-      <c r="B351" s="3" t="n"/>
+      <c r="C351" s="3" t="n"/>
     </row>
     <row r="352" ht="16" customHeight="1">
-      <c r="B352" s="3" t="n"/>
+      <c r="C352" s="3" t="n"/>
     </row>
     <row r="353" ht="16" customHeight="1">
-      <c r="B353" s="3" t="n"/>
+      <c r="C353" s="3" t="n"/>
     </row>
     <row r="354" ht="16" customHeight="1">
-      <c r="B354" s="3" t="n"/>
+      <c r="C354" s="3" t="n"/>
     </row>
     <row r="355" ht="16" customHeight="1">
-      <c r="B355" s="3" t="n"/>
+      <c r="C355" s="3" t="n"/>
     </row>
     <row r="356" ht="16" customHeight="1">
-      <c r="B356" s="3" t="n"/>
+      <c r="C356" s="3" t="n"/>
     </row>
     <row r="357" ht="16" customHeight="1">
-      <c r="B357" s="3" t="n"/>
+      <c r="C357" s="3" t="n"/>
     </row>
     <row r="358" ht="16" customHeight="1">
-      <c r="B358" s="3" t="n"/>
+      <c r="C358" s="3" t="n"/>
     </row>
     <row r="359" ht="16" customHeight="1">
-      <c r="B359" s="3" t="n"/>
+      <c r="C359" s="3" t="n"/>
     </row>
     <row r="360" ht="16" customHeight="1">
-      <c r="B360" s="3" t="n"/>
+      <c r="C360" s="3" t="n"/>
     </row>
     <row r="361" ht="16" customHeight="1">
-      <c r="B361" s="3" t="n"/>
+      <c r="C361" s="3" t="n"/>
     </row>
     <row r="362" ht="16" customHeight="1">
-      <c r="B362" s="3" t="n"/>
+      <c r="C362" s="3" t="n"/>
     </row>
     <row r="363" ht="16" customHeight="1">
-      <c r="B363" s="3" t="n"/>
+      <c r="C363" s="3" t="n"/>
     </row>
     <row r="364" ht="16" customHeight="1">
-      <c r="B364" s="3" t="n"/>
+      <c r="C364" s="3" t="n"/>
     </row>
     <row r="365" ht="16" customHeight="1">
-      <c r="B365" s="3" t="n"/>
+      <c r="C365" s="3" t="n"/>
     </row>
     <row r="366" ht="16" customHeight="1">
-      <c r="B366" s="3" t="n"/>
+      <c r="C366" s="3" t="n"/>
     </row>
     <row r="367" ht="16" customHeight="1">
-      <c r="B367" s="3" t="n"/>
+      <c r="C367" s="3" t="n"/>
     </row>
     <row r="368" ht="16" customHeight="1">
-      <c r="B368" s="3" t="n"/>
+      <c r="C368" s="3" t="n"/>
     </row>
     <row r="369" ht="16" customHeight="1">
-      <c r="B369" s="3" t="n"/>
+      <c r="C369" s="3" t="n"/>
     </row>
     <row r="370" ht="16" customHeight="1">
-      <c r="B370" s="3" t="n"/>
+      <c r="C370" s="3" t="n"/>
     </row>
     <row r="371" ht="16" customHeight="1">
-      <c r="B371" s="3" t="n"/>
+      <c r="C371" s="3" t="n"/>
     </row>
     <row r="372" ht="16" customHeight="1">
-      <c r="B372" s="3" t="n"/>
+      <c r="C372" s="3" t="n"/>
     </row>
     <row r="373" ht="16" customHeight="1">
-      <c r="B373" s="3" t="n"/>
+      <c r="C373" s="3" t="n"/>
     </row>
     <row r="374" ht="16" customHeight="1">
-      <c r="B374" s="3" t="n"/>
+      <c r="C374" s="3" t="n"/>
     </row>
     <row r="375" ht="16" customHeight="1">
-      <c r="B375" s="3" t="n"/>
+      <c r="C375" s="3" t="n"/>
     </row>
     <row r="376" ht="16" customHeight="1">
-      <c r="B376" s="3" t="n"/>
+      <c r="C376" s="3" t="n"/>
     </row>
     <row r="377" ht="16" customHeight="1">
-      <c r="B377" s="3" t="n"/>
+      <c r="C377" s="3" t="n"/>
     </row>
     <row r="378" ht="16" customHeight="1">
-      <c r="B378" s="3" t="n"/>
+      <c r="C378" s="3" t="n"/>
     </row>
     <row r="379" ht="16" customHeight="1">
-      <c r="B379" s="3" t="n"/>
+      <c r="C379" s="3" t="n"/>
     </row>
     <row r="380" ht="16" customHeight="1">
-      <c r="B380" s="3" t="n"/>
+      <c r="C380" s="3" t="n"/>
     </row>
     <row r="381" ht="16" customHeight="1">
-      <c r="B381" s="3" t="n"/>
+      <c r="C381" s="3" t="n"/>
     </row>
     <row r="382" ht="16" customHeight="1">
-      <c r="B382" s="3" t="n"/>
+      <c r="C382" s="3" t="n"/>
     </row>
     <row r="383" ht="16" customHeight="1">
-      <c r="B383" s="3" t="n"/>
+      <c r="C383" s="3" t="n"/>
     </row>
     <row r="384" ht="16" customHeight="1">
-      <c r="B384" s="3" t="n"/>
+      <c r="C384" s="3" t="n"/>
     </row>
     <row r="385" ht="16" customHeight="1">
-      <c r="B385" s="3" t="n"/>
+      <c r="C385" s="3" t="n"/>
     </row>
     <row r="386" ht="16" customHeight="1">
-      <c r="B386" s="3" t="n"/>
+      <c r="C386" s="3" t="n"/>
     </row>
     <row r="387" ht="16" customHeight="1">
-      <c r="B387" s="3" t="n"/>
+      <c r="C387" s="3" t="n"/>
     </row>
     <row r="388" ht="16" customHeight="1">
-      <c r="B388" s="3" t="n"/>
+      <c r="C388" s="3" t="n"/>
     </row>
     <row r="389" ht="16" customHeight="1">
-      <c r="B389" s="3" t="n"/>
+      <c r="C389" s="3" t="n"/>
     </row>
     <row r="390" ht="16" customHeight="1">
-      <c r="B390" s="3" t="n"/>
+      <c r="C390" s="3" t="n"/>
     </row>
     <row r="391" ht="16" customHeight="1">
-      <c r="B391" s="3" t="n"/>
+      <c r="C391" s="3" t="n"/>
     </row>
     <row r="392" ht="16" customHeight="1">
-      <c r="B392" s="3" t="n"/>
+      <c r="C392" s="3" t="n"/>
     </row>
     <row r="393" ht="16" customHeight="1">
-      <c r="B393" s="3" t="n"/>
+      <c r="C393" s="3" t="n"/>
     </row>
     <row r="394" ht="16" customHeight="1">
-      <c r="B394" s="3" t="n"/>
+      <c r="C394" s="3" t="n"/>
     </row>
     <row r="395" ht="16" customHeight="1">
-      <c r="B395" s="3" t="n"/>
+      <c r="C395" s="3" t="n"/>
     </row>
     <row r="396" ht="16" customHeight="1">
-      <c r="B396" s="3" t="n"/>
+      <c r="C396" s="3" t="n"/>
     </row>
     <row r="397" ht="16" customHeight="1">
-      <c r="B397" s="3" t="n"/>
+      <c r="C397" s="3" t="n"/>
     </row>
     <row r="398" ht="16" customHeight="1">
-      <c r="B398" s="3" t="n"/>
+      <c r="C398" s="3" t="n"/>
     </row>
     <row r="399" ht="16" customHeight="1">
-      <c r="B399" s="3" t="n"/>
+      <c r="C399" s="3" t="n"/>
     </row>
     <row r="400" ht="16" customHeight="1">
-      <c r="B400" s="3" t="n"/>
+      <c r="C400" s="3" t="n"/>
     </row>
     <row r="401" ht="16" customHeight="1">
-      <c r="B401" s="3" t="n"/>
+      <c r="C401" s="3" t="n"/>
     </row>
     <row r="402" ht="16" customHeight="1">
-      <c r="B402" s="3" t="n"/>
+      <c r="C402" s="3" t="n"/>
     </row>
     <row r="403" ht="16" customHeight="1">
-      <c r="B403" s="3" t="n"/>
+      <c r="C403" s="3" t="n"/>
     </row>
     <row r="404" ht="16" customHeight="1">
-      <c r="B404" s="3" t="n"/>
+      <c r="C404" s="3" t="n"/>
     </row>
     <row r="405" ht="16" customHeight="1">
-      <c r="B405" s="3" t="n"/>
+      <c r="C405" s="3" t="n"/>
     </row>
     <row r="406" ht="16" customHeight="1">
-      <c r="B406" s="3" t="n"/>
+      <c r="C406" s="3" t="n"/>
     </row>
     <row r="407" ht="16" customHeight="1">
-      <c r="B407" s="3" t="n"/>
+      <c r="C407" s="3" t="n"/>
     </row>
     <row r="408" ht="16" customHeight="1">
-      <c r="B408" s="3" t="n"/>
+      <c r="C408" s="3" t="n"/>
     </row>
     <row r="409" ht="16" customHeight="1">
-      <c r="B409" s="3" t="n"/>
+      <c r="C409" s="3" t="n"/>
     </row>
     <row r="410" ht="16" customFormat="1" customHeight="1" s="1">
-      <c r="B410" s="2" t="n"/>
+      <c r="C410" s="2" t="n"/>
     </row>
     <row r="411" ht="16" customHeight="1">
-      <c r="B411" s="3" t="n"/>
+      <c r="C411" s="3" t="n"/>
     </row>
     <row r="412" ht="16" customHeight="1">
-      <c r="B412" s="3" t="n"/>
+      <c r="C412" s="3" t="n"/>
     </row>
     <row r="413" ht="16" customHeight="1">
-      <c r="B413" s="3" t="n"/>
+      <c r="C413" s="3" t="n"/>
     </row>
     <row r="414" ht="16" customHeight="1">
-      <c r="B414" s="3" t="n"/>
+      <c r="C414" s="3" t="n"/>
     </row>
     <row r="415" ht="16" customHeight="1">
-      <c r="B415" s="3" t="n"/>
+      <c r="C415" s="3" t="n"/>
     </row>
     <row r="416" ht="16" customHeight="1">
-      <c r="B416" s="3" t="n"/>
+      <c r="C416" s="3" t="n"/>
     </row>
     <row r="417" ht="16" customHeight="1">
-      <c r="B417" s="3" t="n"/>
+      <c r="C417" s="3" t="n"/>
     </row>
     <row r="418" ht="16" customHeight="1">
-      <c r="B418" s="3" t="n"/>
+      <c r="C418" s="3" t="n"/>
     </row>
     <row r="419" ht="16" customHeight="1">
-      <c r="B419" s="3" t="n"/>
+      <c r="C419" s="3" t="n"/>
     </row>
     <row r="420" ht="16" customHeight="1">
-      <c r="B420" s="3" t="n"/>
+      <c r="C420" s="3" t="n"/>
     </row>
     <row r="421" ht="16" customHeight="1">
-      <c r="B421" s="3" t="n"/>
+      <c r="C421" s="3" t="n"/>
     </row>
     <row r="422" ht="16" customHeight="1">
-      <c r="B422" s="3" t="n"/>
+      <c r="C422" s="3" t="n"/>
     </row>
     <row r="423" ht="16" customHeight="1">
-      <c r="B423" s="3" t="n"/>
+      <c r="C423" s="3" t="n"/>
     </row>
     <row r="424" ht="16" customHeight="1">
-      <c r="B424" s="3" t="n"/>
+      <c r="C424" s="3" t="n"/>
     </row>
     <row r="425" ht="16" customHeight="1">
-      <c r="B425" s="3" t="n"/>
+      <c r="C425" s="3" t="n"/>
     </row>
     <row r="426" ht="16" customHeight="1">
-      <c r="B426" s="3" t="n"/>
+      <c r="C426" s="3" t="n"/>
     </row>
     <row r="427" ht="16" customHeight="1">
-      <c r="B427" s="3" t="n"/>
+      <c r="C427" s="3" t="n"/>
     </row>
     <row r="428" ht="16" customHeight="1">
-      <c r="B428" s="3" t="n"/>
+      <c r="C428" s="3" t="n"/>
     </row>
     <row r="429" ht="16" customHeight="1">
-      <c r="B429" s="3" t="n"/>
+      <c r="C429" s="3" t="n"/>
     </row>
     <row r="430" ht="16" customHeight="1">
-      <c r="B430" s="3" t="n"/>
+      <c r="C430" s="3" t="n"/>
     </row>
     <row r="431" ht="16" customHeight="1">
-      <c r="B431" s="3" t="n"/>
+      <c r="C431" s="3" t="n"/>
     </row>
     <row r="432" ht="16" customHeight="1">
-      <c r="B432" s="3" t="n"/>
+      <c r="C432" s="3" t="n"/>
     </row>
     <row r="433" ht="16" customHeight="1">
-      <c r="B433" s="3" t="n"/>
+      <c r="C433" s="3" t="n"/>
     </row>
     <row r="434" ht="16" customHeight="1">
-      <c r="B434" s="3" t="n"/>
+      <c r="C434" s="3" t="n"/>
     </row>
     <row r="435" ht="16" customHeight="1">
-      <c r="B435" s="3" t="n"/>
+      <c r="C435" s="3" t="n"/>
     </row>
     <row r="436" ht="16" customHeight="1">
-      <c r="B436" s="2" t="n"/>
+      <c r="C436" s="2" t="n"/>
     </row>
     <row r="437" ht="16" customHeight="1">
-      <c r="B437" s="3" t="n"/>
+      <c r="C437" s="3" t="n"/>
     </row>
     <row r="438" ht="16" customHeight="1">
-      <c r="B438" s="3" t="n"/>
+      <c r="C438" s="3" t="n"/>
     </row>
     <row r="439" ht="16" customHeight="1">
-      <c r="B439" s="3" t="n"/>
+      <c r="C439" s="3" t="n"/>
     </row>
     <row r="440" ht="16" customHeight="1">
-      <c r="B440" s="3" t="n"/>
+      <c r="C440" s="3" t="n"/>
     </row>
     <row r="441" ht="16" customHeight="1">
-      <c r="B441" s="3" t="n"/>
+      <c r="C441" s="3" t="n"/>
     </row>
     <row r="442" ht="16" customHeight="1">
-      <c r="B442" s="3" t="n"/>
+      <c r="C442" s="3" t="n"/>
     </row>
     <row r="443" ht="16" customHeight="1">
-      <c r="B443" s="3" t="n"/>
+      <c r="C443" s="3" t="n"/>
     </row>
     <row r="444" ht="16" customHeight="1">
-      <c r="B444" s="3" t="n"/>
+      <c r="C444" s="3" t="n"/>
     </row>
     <row r="445" ht="16" customHeight="1">
-      <c r="B445" s="3" t="n"/>
+      <c r="C445" s="3" t="n"/>
     </row>
     <row r="446" ht="16" customHeight="1">
-      <c r="B446" s="3" t="n"/>
+      <c r="C446" s="3" t="n"/>
     </row>
     <row r="447" ht="16" customHeight="1">
-      <c r="B447" s="3" t="n"/>
+      <c r="C447" s="3" t="n"/>
     </row>
     <row r="448" ht="16" customHeight="1">
-      <c r="B448" s="3" t="n"/>
+      <c r="C448" s="3" t="n"/>
     </row>
     <row r="449" ht="16" customHeight="1">
-      <c r="B449" s="3" t="n"/>
+      <c r="C449" s="3" t="n"/>
     </row>
     <row r="450" ht="16" customHeight="1">
-      <c r="B450" s="2" t="n"/>
+      <c r="C450" s="2" t="n"/>
     </row>
     <row r="451" ht="16" customHeight="1">
-      <c r="B451" s="2" t="n"/>
+      <c r="C451" s="2" t="n"/>
     </row>
     <row r="452" ht="16" customHeight="1">
-      <c r="B452" s="3" t="n"/>
+      <c r="C452" s="3" t="n"/>
     </row>
     <row r="453" ht="16" customHeight="1">
-      <c r="B453" s="3" t="n"/>
+      <c r="C453" s="3" t="n"/>
     </row>
     <row r="454" ht="16" customHeight="1">
-      <c r="B454" s="3" t="n"/>
+      <c r="C454" s="3" t="n"/>
     </row>
     <row r="455" ht="16" customHeight="1">
-      <c r="B455" s="3" t="n"/>
+      <c r="C455" s="3" t="n"/>
     </row>
     <row r="456" ht="16" customHeight="1">
-      <c r="B456" s="3" t="n"/>
+      <c r="C456" s="3" t="n"/>
     </row>
     <row r="457" ht="16" customHeight="1">
-      <c r="B457" s="3" t="n"/>
+      <c r="C457" s="3" t="n"/>
     </row>
     <row r="458" ht="16" customHeight="1">
-      <c r="B458" s="3" t="n"/>
+      <c r="C458" s="3" t="n"/>
     </row>
     <row r="459" ht="16" customHeight="1">
-      <c r="B459" s="3" t="n"/>
+      <c r="C459" s="3" t="n"/>
     </row>
     <row r="460" ht="16" customHeight="1">
-      <c r="B460" s="3" t="n"/>
+      <c r="C460" s="3" t="n"/>
     </row>
     <row r="461" ht="16" customHeight="1">
-      <c r="B461" s="3" t="n"/>
+      <c r="C461" s="3" t="n"/>
     </row>
     <row r="462" ht="16" customHeight="1">
-      <c r="B462" s="3" t="n"/>
+      <c r="C462" s="3" t="n"/>
     </row>
     <row r="463" ht="16" customHeight="1">
-      <c r="B463" s="3" t="n"/>
+      <c r="C463" s="3" t="n"/>
     </row>
     <row r="464" ht="16" customHeight="1">
-      <c r="B464" s="3" t="n"/>
+      <c r="C464" s="3" t="n"/>
     </row>
     <row r="465" ht="16" customHeight="1">
-      <c r="B465" s="3" t="n"/>
+      <c r="C465" s="3" t="n"/>
     </row>
     <row r="466" ht="16" customHeight="1">
-      <c r="B466" s="3" t="n"/>
+      <c r="C466" s="3" t="n"/>
     </row>
     <row r="467" ht="16" customHeight="1">
-      <c r="B467" s="3" t="n"/>
+      <c r="C467" s="3" t="n"/>
     </row>
     <row r="468" ht="16" customHeight="1">
-      <c r="B468" s="2" t="n"/>
+      <c r="C468" s="2" t="n"/>
     </row>
     <row r="469" ht="16" customHeight="1">
-      <c r="B469" s="2" t="n"/>
+      <c r="C469" s="2" t="n"/>
     </row>
     <row r="470" ht="16" customHeight="1">
-      <c r="B470" s="3" t="n"/>
+      <c r="C470" s="3" t="n"/>
     </row>
     <row r="471" ht="16" customHeight="1">
-      <c r="B471" s="3" t="n"/>
+      <c r="C471" s="3" t="n"/>
     </row>
     <row r="472" ht="16" customHeight="1">
-      <c r="B472" s="3" t="n"/>
+      <c r="C472" s="3" t="n"/>
     </row>
     <row r="473" ht="16" customHeight="1">
-      <c r="B473" s="3" t="n"/>
+      <c r="C473" s="3" t="n"/>
     </row>
     <row r="474" ht="16" customHeight="1">
-      <c r="B474" s="3" t="n"/>
+      <c r="C474" s="3" t="n"/>
     </row>
     <row r="475" ht="16" customHeight="1">
-      <c r="B475" s="3" t="n"/>
+      <c r="C475" s="3" t="n"/>
     </row>
     <row r="476" ht="16" customHeight="1">
-      <c r="B476" s="3" t="n"/>
+      <c r="C476" s="3" t="n"/>
     </row>
     <row r="477" ht="16" customHeight="1">
-      <c r="B477" s="3" t="n"/>
+      <c r="C477" s="3" t="n"/>
     </row>
     <row r="478" ht="16" customHeight="1">
-      <c r="B478" s="3" t="n"/>
+      <c r="C478" s="3" t="n"/>
     </row>
     <row r="479" ht="16" customHeight="1">
-      <c r="B479" s="3" t="n"/>
+      <c r="C479" s="3" t="n"/>
     </row>
     <row r="480" ht="16" customHeight="1">
-      <c r="B480" s="3" t="n"/>
+      <c r="C480" s="3" t="n"/>
     </row>
     <row r="481" ht="16" customHeight="1">
-      <c r="B481" s="3" t="n"/>
+      <c r="C481" s="3" t="n"/>
     </row>
     <row r="482" ht="16" customHeight="1">
-      <c r="B482" s="3" t="n"/>
+      <c r="C482" s="3" t="n"/>
     </row>
     <row r="483" ht="16" customHeight="1">
-      <c r="B483" s="3" t="n"/>
+      <c r="C483" s="3" t="n"/>
     </row>
     <row r="484" ht="16" customHeight="1">
-      <c r="B484" s="3" t="n"/>
+      <c r="C484" s="3" t="n"/>
     </row>
     <row r="485" ht="16" customHeight="1">
-      <c r="B485" s="3" t="n"/>
+      <c r="C485" s="3" t="n"/>
     </row>
     <row r="486" ht="16" customHeight="1">
-      <c r="B486" s="3" t="n"/>
+      <c r="C486" s="3" t="n"/>
     </row>
     <row r="487" ht="16" customHeight="1">
-      <c r="B487" s="3" t="n"/>
+      <c r="C487" s="3" t="n"/>
     </row>
     <row r="488" ht="16" customHeight="1">
-      <c r="B488" s="3" t="n"/>
+      <c r="C488" s="3" t="n"/>
     </row>
     <row r="489" ht="16" customHeight="1">
-      <c r="B489" s="2" t="n"/>
+      <c r="C489" s="2" t="n"/>
     </row>
     <row r="490" ht="16" customHeight="1">
-      <c r="B490" s="3" t="n"/>
+      <c r="C490" s="3" t="n"/>
     </row>
     <row r="491" ht="16" customHeight="1">
-      <c r="B491" s="3" t="n"/>
+      <c r="C491" s="3" t="n"/>
     </row>
     <row r="492" ht="16" customHeight="1">
-      <c r="B492" s="3" t="n"/>
+      <c r="C492" s="3" t="n"/>
     </row>
     <row r="493" ht="16" customHeight="1">
-      <c r="B493" s="3" t="n"/>
+      <c r="C493" s="3" t="n"/>
     </row>
     <row r="494" ht="16" customHeight="1">
-      <c r="B494" s="3" t="n"/>
+      <c r="C494" s="3" t="n"/>
     </row>
     <row r="495" ht="16" customHeight="1">
-      <c r="B495" s="3" t="n"/>
+      <c r="C495" s="3" t="n"/>
     </row>
     <row r="496" ht="16" customHeight="1">
-      <c r="B496" s="3" t="n"/>
+      <c r="C496" s="3" t="n"/>
     </row>
     <row r="497" ht="16" customHeight="1">
-      <c r="B497" s="3" t="n"/>
+      <c r="C497" s="3" t="n"/>
     </row>
     <row r="498" ht="16" customHeight="1">
-      <c r="B498" s="3" t="n"/>
+      <c r="C498" s="3" t="n"/>
     </row>
     <row r="499" ht="16" customHeight="1">
-      <c r="B499" s="3" t="n"/>
+      <c r="C499" s="3" t="n"/>
     </row>
     <row r="500" ht="16" customHeight="1">
-      <c r="B500" s="3" t="n"/>
+      <c r="C500" s="3" t="n"/>
     </row>
     <row r="501" ht="16" customHeight="1">
-      <c r="B501" s="3" t="n"/>
+      <c r="C501" s="3" t="n"/>
     </row>
     <row r="502" ht="16" customHeight="1">
-      <c r="B502" s="3" t="n"/>
+      <c r="C502" s="3" t="n"/>
     </row>
     <row r="503" ht="16" customHeight="1">
-      <c r="B503" s="3" t="n"/>
+      <c r="C503" s="3" t="n"/>
     </row>
     <row r="504" ht="16" customHeight="1">
-      <c r="B504" s="3" t="n"/>
+      <c r="C504" s="3" t="n"/>
     </row>
     <row r="505" ht="16" customHeight="1">
-      <c r="B505" s="3" t="n"/>
+      <c r="C505" s="3" t="n"/>
     </row>
     <row r="506" ht="16" customHeight="1">
-      <c r="B506" s="3" t="n"/>
+      <c r="C506" s="3" t="n"/>
     </row>
     <row r="507" ht="16" customHeight="1">
-      <c r="B507" s="2" t="n"/>
+      <c r="C507" s="2" t="n"/>
     </row>
     <row r="508" ht="16" customHeight="1">
-      <c r="B508" s="3" t="n"/>
+      <c r="C508" s="3" t="n"/>
     </row>
     <row r="509" ht="16" customHeight="1">
-      <c r="B509" s="3" t="n"/>
+      <c r="C509" s="3" t="n"/>
     </row>
     <row r="510" ht="16" customHeight="1">
-      <c r="B510" s="3" t="n"/>
+      <c r="C510" s="3" t="n"/>
     </row>
     <row r="511" ht="16" customHeight="1">
-      <c r="B511" s="3" t="n"/>
+      <c r="C511" s="3" t="n"/>
     </row>
     <row r="512" ht="16" customHeight="1">
-      <c r="B512" s="3" t="n"/>
+      <c r="C512" s="3" t="n"/>
     </row>
     <row r="513" ht="16" customHeight="1">
-      <c r="B513" s="3" t="n"/>
+      <c r="C513" s="3" t="n"/>
     </row>
     <row r="514" ht="16" customHeight="1">
-      <c r="B514" s="3" t="n"/>
+      <c r="C514" s="3" t="n"/>
     </row>
     <row r="515" ht="16" customHeight="1">
-      <c r="B515" s="3" t="n"/>
+      <c r="C515" s="3" t="n"/>
     </row>
     <row r="516" ht="16" customHeight="1">
-      <c r="B516" s="3" t="n"/>
+      <c r="C516" s="3" t="n"/>
     </row>
     <row r="517" ht="16" customHeight="1">
-      <c r="B517" s="2" t="n"/>
+      <c r="C517" s="2" t="n"/>
     </row>
     <row r="518" ht="16" customHeight="1">
-      <c r="B518" s="2" t="n"/>
+      <c r="C518" s="2" t="n"/>
     </row>
     <row r="519" ht="16" customHeight="1">
-      <c r="B519" s="2" t="n"/>
+      <c r="C519" s="2" t="n"/>
     </row>
     <row r="520" ht="16" customHeight="1">
-      <c r="B520" s="3" t="n"/>
+      <c r="C520" s="3" t="n"/>
     </row>
     <row r="521" ht="16" customHeight="1">
-      <c r="B521" s="3" t="n"/>
+      <c r="C521" s="3" t="n"/>
     </row>
     <row r="522" ht="16" customHeight="1">
-      <c r="B522" s="3" t="n"/>
+      <c r="C522" s="3" t="n"/>
     </row>
     <row r="523" ht="16" customHeight="1">
-      <c r="B523" s="2" t="n"/>
+      <c r="C523" s="2" t="n"/>
     </row>
     <row r="524" ht="16" customHeight="1">
-      <c r="B524" s="2" t="n"/>
+      <c r="C524" s="2" t="n"/>
     </row>
     <row r="525" ht="16" customHeight="1">
-      <c r="B525" s="3" t="n"/>
+      <c r="C525" s="3" t="n"/>
     </row>
     <row r="526" ht="16" customHeight="1">
-      <c r="B526" s="3" t="n"/>
+      <c r="C526" s="3" t="n"/>
     </row>
     <row r="527" ht="16" customHeight="1">
-      <c r="B527" s="3" t="n"/>
+      <c r="C527" s="3" t="n"/>
     </row>
     <row r="528" ht="16" customHeight="1">
-      <c r="B528" s="3" t="n"/>
+      <c r="C528" s="3" t="n"/>
     </row>
     <row r="529" ht="16" customHeight="1">
-      <c r="B529" s="3" t="n"/>
+      <c r="C529" s="3" t="n"/>
     </row>
     <row r="530" ht="16" customHeight="1">
-      <c r="B530" s="3" t="n"/>
+      <c r="C530" s="3" t="n"/>
     </row>
     <row r="531" ht="16" customHeight="1">
-      <c r="B531" s="3" t="n"/>
+      <c r="C531" s="3" t="n"/>
     </row>
     <row r="532" ht="16" customHeight="1">
-      <c r="B532" s="3" t="n"/>
+      <c r="C532" s="3" t="n"/>
     </row>
     <row r="533" ht="16" customHeight="1">
-      <c r="B533" s="2" t="n"/>
+      <c r="C533" s="2" t="n"/>
     </row>
     <row r="534" ht="16" customHeight="1">
-      <c r="B534" s="2" t="n"/>
+      <c r="C534" s="2" t="n"/>
     </row>
     <row r="535" ht="16" customHeight="1">
-      <c r="B535" s="3" t="n"/>
+      <c r="C535" s="3" t="n"/>
     </row>
     <row r="536" ht="16" customHeight="1">
-      <c r="B536" s="3" t="n"/>
+      <c r="C536" s="3" t="n"/>
     </row>
     <row r="537" ht="16" customHeight="1">
-      <c r="B537" s="3" t="n"/>
+      <c r="C537" s="3" t="n"/>
     </row>
     <row r="538" ht="16" customHeight="1">
-      <c r="B538" s="3" t="n"/>
+      <c r="C538" s="3" t="n"/>
     </row>
     <row r="539" ht="16" customHeight="1">
-      <c r="B539" s="3" t="n"/>
+      <c r="C539" s="3" t="n"/>
     </row>
     <row r="540" ht="16" customHeight="1">
-      <c r="B540" s="3" t="n"/>
+      <c r="C540" s="3" t="n"/>
     </row>
     <row r="541" ht="16" customHeight="1">
-      <c r="B541" s="3" t="n"/>
+      <c r="C541" s="3" t="n"/>
     </row>
     <row r="542" ht="16" customHeight="1">
-      <c r="B542" s="3" t="n"/>
+      <c r="C542" s="3" t="n"/>
     </row>
     <row r="543" ht="16" customHeight="1">
-      <c r="B543" s="3" t="n"/>
+      <c r="C543" s="3" t="n"/>
     </row>
     <row r="544" ht="16" customHeight="1">
-      <c r="B544" s="2" t="n"/>
+      <c r="C544" s="2" t="n"/>
     </row>
     <row r="545" ht="16" customHeight="1">
-      <c r="B545" s="2" t="n"/>
+      <c r="C545" s="2" t="n"/>
     </row>
     <row r="546" ht="16" customHeight="1">
-      <c r="B546" s="2" t="n"/>
+      <c r="C546" s="2" t="n"/>
     </row>
     <row r="547" ht="16" customHeight="1">
-      <c r="B547" s="2" t="n"/>
+      <c r="C547" s="2" t="n"/>
     </row>
     <row r="548" ht="16" customHeight="1">
-      <c r="B548" s="3" t="n"/>
+      <c r="C548" s="3" t="n"/>
     </row>
     <row r="549" ht="16" customHeight="1">
-      <c r="B549" s="3" t="n"/>
+      <c r="C549" s="3" t="n"/>
     </row>
     <row r="550" ht="16" customHeight="1">
-      <c r="B550" s="3" t="n"/>
+      <c r="C550" s="3" t="n"/>
     </row>
     <row r="551" ht="16" customHeight="1">
-      <c r="B551" s="3" t="n"/>
+      <c r="C551" s="3" t="n"/>
     </row>
     <row r="552" ht="16" customHeight="1">
-      <c r="B552" s="2" t="n"/>
+      <c r="C552" s="2" t="n"/>
     </row>
     <row r="553" ht="16" customHeight="1">
-      <c r="B553" s="2" t="n"/>
+      <c r="C553" s="2" t="n"/>
     </row>
     <row r="554" ht="16" customHeight="1">
-      <c r="B554" s="2" t="n"/>
+      <c r="C554" s="2" t="n"/>
     </row>
     <row r="555" ht="16" customHeight="1">
-      <c r="B555" s="2" t="n"/>
+      <c r="C555" s="2" t="n"/>
     </row>
     <row r="556" ht="16" customHeight="1">
-      <c r="B556" s="2" t="n"/>
+      <c r="C556" s="2" t="n"/>
     </row>
     <row r="557" ht="16" customHeight="1">
-      <c r="B557" s="2" t="n"/>
+      <c r="C557" s="2" t="n"/>
     </row>
     <row r="558" ht="16" customHeight="1">
-      <c r="B558" s="3" t="n"/>
+      <c r="C558" s="3" t="n"/>
     </row>
     <row r="559" ht="16" customHeight="1">
-      <c r="B559" s="3" t="n"/>
+      <c r="C559" s="3" t="n"/>
     </row>
     <row r="560" ht="16" customHeight="1">
-      <c r="B560" s="3" t="n"/>
+      <c r="C560" s="3" t="n"/>
     </row>
     <row r="561" ht="16" customHeight="1">
-      <c r="B561" s="3" t="n"/>
+      <c r="C561" s="3" t="n"/>
     </row>
     <row r="562" ht="16" customHeight="1">
-      <c r="B562" s="3" t="n"/>
+      <c r="C562" s="3" t="n"/>
     </row>
     <row r="563" ht="16" customHeight="1">
-      <c r="B563" s="3" t="n"/>
+      <c r="C563" s="3" t="n"/>
     </row>
     <row r="564" ht="16" customHeight="1">
-      <c r="B564" s="3" t="n"/>
+      <c r="C564" s="3" t="n"/>
     </row>
     <row r="565" ht="16" customHeight="1">
-      <c r="B565" s="3" t="n"/>
+      <c r="C565" s="3" t="n"/>
     </row>
     <row r="566" ht="16" customHeight="1">
-      <c r="B566" s="2" t="n"/>
+      <c r="C566" s="2" t="n"/>
     </row>
     <row r="567" ht="16" customHeight="1">
-      <c r="B567" s="3" t="n"/>
+      <c r="C567" s="3" t="n"/>
     </row>
     <row r="568" ht="16" customHeight="1">
-      <c r="B568" s="3" t="n"/>
+      <c r="C568" s="3" t="n"/>
     </row>
     <row r="569" ht="16" customHeight="1">
-      <c r="B569" s="3" t="n"/>
+      <c r="C569" s="3" t="n"/>
     </row>
     <row r="570" ht="16" customHeight="1">
-      <c r="B570" s="3" t="n"/>
+      <c r="C570" s="3" t="n"/>
     </row>
     <row r="571" ht="16" customHeight="1">
-      <c r="B571" s="2" t="n"/>
+      <c r="C571" s="2" t="n"/>
     </row>
     <row r="572" ht="16" customHeight="1">
-      <c r="B572" s="2" t="n"/>
+      <c r="C572" s="2" t="n"/>
     </row>
     <row r="573" ht="16" customHeight="1">
-      <c r="B573" s="2" t="n"/>
+      <c r="C573" s="2" t="n"/>
     </row>
     <row r="574" ht="16" customHeight="1">
-      <c r="B574" s="2" t="n"/>
+      <c r="C574" s="2" t="n"/>
     </row>
     <row r="575" ht="16" customHeight="1">
-      <c r="B575" s="2" t="n"/>
+      <c r="C575" s="2" t="n"/>
     </row>
     <row r="576" ht="16" customHeight="1">
-      <c r="B576" s="3" t="n"/>
+      <c r="C576" s="3" t="n"/>
     </row>
     <row r="577" ht="16" customHeight="1">
-      <c r="B577" s="3" t="n"/>
+      <c r="C577" s="3" t="n"/>
     </row>
     <row r="578" ht="16" customHeight="1">
-      <c r="B578" s="3" t="n"/>
+      <c r="C578" s="3" t="n"/>
     </row>
     <row r="579" ht="16" customHeight="1">
-      <c r="B579" s="3" t="n"/>
+      <c r="C579" s="3" t="n"/>
     </row>
     <row r="580" ht="16" customHeight="1">
-      <c r="B580" s="3" t="n"/>
+      <c r="C580" s="3" t="n"/>
     </row>
     <row r="581" ht="16" customHeight="1">
-      <c r="B581" s="3" t="n"/>
+      <c r="C581" s="3" t="n"/>
     </row>
     <row r="582" ht="16" customHeight="1">
-      <c r="B582" s="3" t="n"/>
+      <c r="C582" s="3" t="n"/>
     </row>
     <row r="583" ht="16" customHeight="1">
-      <c r="B583" s="3" t="n"/>
+      <c r="C583" s="3" t="n"/>
     </row>
     <row r="584" ht="16" customHeight="1">
-      <c r="B584" s="2" t="n"/>
+      <c r="C584" s="2" t="n"/>
     </row>
     <row r="585" ht="16" customHeight="1">
-      <c r="B585" s="2" t="n"/>
+      <c r="C585" s="2" t="n"/>
     </row>
     <row r="586" ht="16" customHeight="1">
-      <c r="B586" s="3" t="n"/>
+      <c r="C586" s="3" t="n"/>
     </row>
     <row r="587" ht="16" customHeight="1">
-      <c r="B587" s="3" t="n"/>
+      <c r="C587" s="3" t="n"/>
     </row>
     <row r="588" ht="16" customHeight="1">
-      <c r="B588" s="2" t="n"/>
+      <c r="C588" s="2" t="n"/>
     </row>
     <row r="589" ht="16" customHeight="1">
-      <c r="B589" s="3" t="n"/>
+      <c r="C589" s="3" t="n"/>
     </row>
     <row r="590" ht="16" customHeight="1">
-      <c r="B590" s="3" t="n"/>
+      <c r="C590" s="3" t="n"/>
     </row>
     <row r="591" ht="16" customHeight="1">
-      <c r="B591" s="2" t="n"/>
+      <c r="C591" s="2" t="n"/>
     </row>
     <row r="592" ht="16" customHeight="1">
-      <c r="B592" s="2" t="n"/>
+      <c r="C592" s="2" t="n"/>
     </row>
     <row r="593" ht="16" customHeight="1">
-      <c r="B593" s="2" t="n"/>
+      <c r="C593" s="2" t="n"/>
     </row>
     <row r="594" ht="16" customHeight="1">
-      <c r="B594" s="2" t="n"/>
+      <c r="C594" s="2" t="n"/>
     </row>
     <row r="595" ht="16" customHeight="1">
-      <c r="B595" s="2" t="n"/>
+      <c r="C595" s="2" t="n"/>
     </row>
     <row r="596" ht="16" customHeight="1">
-      <c r="B596" s="3" t="n"/>
+      <c r="C596" s="3" t="n"/>
     </row>
     <row r="597" ht="16" customHeight="1">
-      <c r="B597" s="3" t="n"/>
+      <c r="C597" s="3" t="n"/>
     </row>
     <row r="598" ht="16" customHeight="1">
-      <c r="B598" s="2" t="n"/>
+      <c r="C598" s="2" t="n"/>
     </row>
     <row r="599" ht="16" customHeight="1">
-      <c r="B599" s="2" t="n"/>
+      <c r="C599" s="2" t="n"/>
     </row>
     <row r="600" ht="16" customHeight="1">
-      <c r="B600" s="2" t="n"/>
+      <c r="C600" s="2" t="n"/>
     </row>
     <row r="601" ht="16" customHeight="1">
-      <c r="B601" s="2" t="n"/>
+      <c r="C601" s="2" t="n"/>
     </row>
     <row r="602" ht="16" customHeight="1">
-      <c r="B602" s="2" t="n"/>
+      <c r="C602" s="2" t="n"/>
     </row>
     <row r="603" ht="16" customHeight="1">
-      <c r="B603" s="2" t="n"/>
+      <c r="C603" s="2" t="n"/>
     </row>
     <row r="604" ht="16" customHeight="1">
-      <c r="B604" s="2" t="n"/>
+      <c r="C604" s="2" t="n"/>
     </row>
     <row r="605" ht="16" customHeight="1">
-      <c r="B605" s="3" t="n"/>
+      <c r="C605" s="3" t="n"/>
     </row>
     <row r="606" ht="16" customHeight="1">
-      <c r="B606" s="3" t="n"/>
+      <c r="C606" s="3" t="n"/>
     </row>
     <row r="607" ht="16" customHeight="1">
-      <c r="B607" s="2" t="n"/>
+      <c r="C607" s="2" t="n"/>
     </row>
     <row r="608" ht="16" customHeight="1">
-      <c r="B608" s="2" t="n"/>
+      <c r="C608" s="2" t="n"/>
     </row>
     <row r="609" ht="16" customHeight="1">
-      <c r="B609" s="2" t="n"/>
+      <c r="C609" s="2" t="n"/>
     </row>
     <row r="610" ht="16" customHeight="1">
-      <c r="B610" s="3" t="n"/>
+      <c r="C610" s="3" t="n"/>
     </row>
     <row r="611" ht="16" customHeight="1">
-      <c r="B611" s="3" t="n"/>
+      <c r="C611" s="3" t="n"/>
     </row>
     <row r="612" ht="16" customHeight="1">
-      <c r="B612" s="2" t="n"/>
+      <c r="C612" s="2" t="n"/>
     </row>
     <row r="613" ht="16" customHeight="1">
-      <c r="B613" s="2" t="n"/>
+      <c r="C613" s="2" t="n"/>
     </row>
     <row r="614" ht="16" customHeight="1">
-      <c r="B614" s="2" t="n"/>
+      <c r="C614" s="2" t="n"/>
     </row>
     <row r="615" ht="16" customHeight="1">
-      <c r="B615" s="2" t="n"/>
+      <c r="C615" s="2" t="n"/>
     </row>
     <row r="616" ht="16" customHeight="1">
-      <c r="B616" s="3" t="n"/>
+      <c r="C616" s="3" t="n"/>
     </row>
     <row r="617" ht="16" customHeight="1">
-      <c r="B617" s="3" t="n"/>
+      <c r="C617" s="3" t="n"/>
     </row>
     <row r="618" ht="16" customHeight="1">
-      <c r="B618" s="2" t="n"/>
+      <c r="C618" s="2" t="n"/>
     </row>
     <row r="619" ht="16" customHeight="1">
-      <c r="B619" s="2" t="n"/>
+      <c r="C619" s="2" t="n"/>
     </row>
     <row r="620" ht="16" customHeight="1">
-      <c r="B620" s="3" t="n"/>
+      <c r="C620" s="3" t="n"/>
     </row>
     <row r="621" ht="16" customHeight="1">
-      <c r="B621" s="3" t="n"/>
+      <c r="C621" s="3" t="n"/>
     </row>
     <row r="622" ht="16" customHeight="1">
-      <c r="B622" s="3" t="n"/>
+      <c r="C622" s="3" t="n"/>
     </row>
     <row r="623" ht="16" customHeight="1">
-      <c r="B623" s="3" t="n"/>
+      <c r="C623" s="3" t="n"/>
     </row>
     <row r="624" ht="16" customHeight="1">
-      <c r="B624" s="3" t="n"/>
+      <c r="C624" s="3" t="n"/>
     </row>
     <row r="625" ht="16" customHeight="1">
-      <c r="B625" s="3" t="n"/>
+      <c r="C625" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
